--- a/dataportalapp/static/data/hva/overzichtassociaties.xlsx
+++ b/dataportalapp/static/data/hva/overzichtassociaties.xlsx
@@ -5,23 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\groepgent.gentgrp.gent.be\data\Huis Van Alijn\3_COLLECTIE\3.02_BEHOUD EN BEHEER VAN DE COLLECTIE\COLLECTIEVORMING EN BEHEER\REGISTRATIE\3_04_03_INVULINSTRUCTIES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gentplus-my.sharepoint.com/personal/flore_verkest_stad_gent/Documents/Bureaublad/hva-im-dataportal/dataportalapp/static/data/hva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B854FEA-17E3-4D7B-95E8-0BD5ADAD6D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0B854FEA-17E3-4D7B-95E8-0BD5ADAD6D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F09C561-F1A2-45FC-B781-7351E33A6BE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overzicht associaties" sheetId="8" r:id="rId1"/>
-    <sheet name="overzicht associaties (alle)" sheetId="7" r:id="rId2"/>
-    <sheet name="alle associaties" sheetId="2" r:id="rId3"/>
-    <sheet name="Blad3" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="overzicht associaties (alle)" sheetId="7" r:id="rId1"/>
+    <sheet name="alle associaties" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'alle associaties'!$A$1:$D$1919</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'overzicht associaties'!$1:$302</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'overzicht associaties (alle)'!$A$1:$H$827</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'alle associaties'!$A$1:$D$1919</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'overzicht associaties (alle)'!$A$1:$H$827</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6717" uniqueCount="3117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6105" uniqueCount="3098">
   <si>
     <t>Associatie</t>
   </si>
@@ -9306,63 +9304,6 @@
   </si>
   <si>
     <t>\</t>
-  </si>
-  <si>
-    <t>Related Terms</t>
-  </si>
-  <si>
-    <t>lijst schooldisciplines</t>
-  </si>
-  <si>
-    <t>lijst related terms</t>
-  </si>
-  <si>
-    <t>lijst sportdisciplines</t>
-  </si>
-  <si>
-    <t>lijst beroepen</t>
-  </si>
-  <si>
-    <t>lijst circusdisciplines en locaties</t>
-  </si>
-  <si>
-    <t>lijst opvoeringen</t>
-  </si>
-  <si>
-    <t>lijst optochten</t>
-  </si>
-  <si>
-    <t>lijst feesten</t>
-  </si>
-  <si>
-    <t>lijst recreatieplekken</t>
-  </si>
-  <si>
-    <t>lijst kunstvormen</t>
-  </si>
-  <si>
-    <t>lijst fabrieken</t>
-  </si>
-  <si>
-    <t>lijst posities koningshuis</t>
-  </si>
-  <si>
-    <t>lijst wereldtentoonstellingen</t>
-  </si>
-  <si>
-    <t>onder ambacht toevoegen</t>
-  </si>
-  <si>
-    <t>lijst handelszaken - onder handel steken in thesau</t>
-  </si>
-  <si>
-    <t>lijst ambachten - onder ambacht steken in thesau</t>
-  </si>
-  <si>
-    <t>Ouder worden</t>
-  </si>
-  <si>
-    <t>lijst voedsel</t>
   </si>
   <si>
     <t>skiën</t>
@@ -9399,7 +9340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9538,21 +9479,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9924,7 +9850,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -9967,9 +9893,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9977,14 +9902,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9997,22 +9918,18 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -10041,7 +9958,6 @@
     <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -10354,3916 +10270,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826AFF1C-8BCC-4725-8B60-93D1091F62D4}">
-  <dimension ref="A1:I302"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="174.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3067</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3088</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3083</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3084</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>3085</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3">
-        <v>916</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H3" s="4">
-        <v>300069456</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>939</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H4" s="4">
-        <v>300264546</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2854</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>2884</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8">
-        <v>239</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H8" s="4">
-        <v>300069057</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2854</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>805</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="C16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>755</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H20" s="4">
-        <v>300404322</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21">
-        <v>548</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H21" s="4">
-        <v>300069053</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>798</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H22" s="4">
-        <v>300264820</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>934</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3113</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H23" s="4">
-        <v>300264822</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24">
-        <v>403</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H24" s="4">
-        <v>300069093</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25">
-        <v>360</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H25" s="4">
-        <v>300133101</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H26" s="4">
-        <v>300133097</v>
-      </c>
-      <c r="I26" t="s">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27">
-        <v>192</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H27" s="4">
-        <v>300133099</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H28" s="4">
-        <v>300133093</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
-        <v>2</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2873</v>
-      </c>
-      <c r="H30" s="4">
-        <v>300189588</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32">
-        <v>578</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>2962</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="C33">
-        <v>57</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H33" s="4">
-        <v>300006698</v>
-      </c>
-      <c r="I33" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H34" s="4">
-        <v>300189561</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>365</v>
-      </c>
-      <c r="C35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>695</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3068</v>
-      </c>
-      <c r="G37" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H37" s="4">
-        <v>300247989</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38">
-        <v>1664</v>
-      </c>
-      <c r="G38" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H38" s="4">
-        <v>300391329</v>
-      </c>
-      <c r="I38" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>654</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>2497</v>
-      </c>
-      <c r="G41" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H41" s="4">
-        <v>300054360</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2943</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>780</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>3089</v>
-      </c>
-      <c r="G42" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H42" s="4">
-        <v>300266108</v>
-      </c>
-      <c r="I42" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>4680</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H46" s="4">
-        <v>300211037</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47">
-        <v>355</v>
-      </c>
-      <c r="G47" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H47" s="4">
-        <v>300263267</v>
-      </c>
-      <c r="I47" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>408</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="11">
-        <v>3</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C52">
-        <v>348</v>
-      </c>
-      <c r="G52" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H52" s="4">
-        <v>300025944</v>
-      </c>
-      <c r="I52" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1441</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>3090</v>
-      </c>
-      <c r="G53" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H53" s="4">
-        <v>300137542</v>
-      </c>
-      <c r="I53" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C54">
-        <v>818</v>
-      </c>
-      <c r="G54" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>2977</v>
-      </c>
-      <c r="I54" t="s">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56">
-        <v>112</v>
-      </c>
-      <c r="G56" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>2890</v>
-      </c>
-      <c r="I56" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57">
-        <v>1205</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>3091</v>
-      </c>
-      <c r="G57" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H57" s="4">
-        <v>300222725</v>
-      </c>
-      <c r="I57" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11">
-        <v>4</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59">
-        <v>244</v>
-      </c>
-      <c r="G59" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H59" s="4">
-        <v>300393188</v>
-      </c>
-      <c r="I59" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>2739</v>
-      </c>
-      <c r="G60" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H60" s="4">
-        <v>300055475</v>
-      </c>
-      <c r="I60" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61">
-        <v>277</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H61" s="4">
-        <v>300069026</v>
-      </c>
-      <c r="I61" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C62">
-        <v>90</v>
-      </c>
-      <c r="G62" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H62" s="4">
-        <v>300004521</v>
-      </c>
-      <c r="I62" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63">
-        <v>78</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>3092</v>
-      </c>
-      <c r="G63" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H63" s="4">
-        <v>300263369</v>
-      </c>
-      <c r="I63" t="s">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11">
-        <v>5</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>5540</v>
-      </c>
-      <c r="G68" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>3049</v>
-      </c>
-      <c r="I68" t="s">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69">
-        <v>781</v>
-      </c>
-      <c r="G69" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H69" s="4">
-        <v>300124520</v>
-      </c>
-      <c r="I69" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>1666</v>
-      </c>
-      <c r="G70" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H70" s="4">
-        <v>300004514</v>
-      </c>
-      <c r="I70" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72">
-        <v>326</v>
-      </c>
-      <c r="G72" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H72" s="4">
-        <v>300004419</v>
-      </c>
-      <c r="I72" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C74">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H74" s="4">
-        <v>300051479</v>
-      </c>
-      <c r="I74" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H75" s="4">
-        <v>300004197</v>
-      </c>
-      <c r="I75" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>453</v>
-      </c>
-      <c r="C76">
-        <v>28</v>
-      </c>
-      <c r="E76" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G76" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H76" s="4">
-        <v>300185749</v>
-      </c>
-      <c r="I76" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G77" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H77" s="4">
-        <v>300037366</v>
-      </c>
-      <c r="I77" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>853</v>
-      </c>
-      <c r="C78">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H78" s="4">
-        <v>300008090</v>
-      </c>
-      <c r="I78" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>872</v>
-      </c>
-      <c r="C79">
-        <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H79" s="4">
-        <v>300037680</v>
-      </c>
-      <c r="I79" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H80" s="4">
-        <v>300037581</v>
-      </c>
-      <c r="I80" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H81" s="4">
-        <v>300191243</v>
-      </c>
-      <c r="I81" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82">
-        <v>504</v>
-      </c>
-      <c r="G82" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H82" s="4">
-        <v>300249494</v>
-      </c>
-      <c r="I82" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="11">
-        <v>6</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84">
-        <v>2330</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>3106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H84" s="4">
-        <v>300254496</v>
-      </c>
-      <c r="I84" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85">
-        <v>748</v>
-      </c>
-      <c r="G85" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H85" s="4">
-        <v>300389821</v>
-      </c>
-      <c r="I85" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H86" s="4">
-        <v>300254662</v>
-      </c>
-      <c r="I86" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11">
-        <v>7</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>3073</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89">
-        <v>125</v>
-      </c>
-      <c r="G89" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H89" s="4">
-        <v>300055133</v>
-      </c>
-      <c r="I89" t="s">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C93">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G93" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H93" s="4">
-        <v>300236306</v>
-      </c>
-      <c r="I93" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>606</v>
-      </c>
-      <c r="C94">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C95">
-        <v>36</v>
-      </c>
-      <c r="G95" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H95" s="4">
-        <v>300404880</v>
-      </c>
-      <c r="I95" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" t="s">
-        <v>447</v>
-      </c>
-      <c r="C96">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H96" s="4">
-        <v>300006676</v>
-      </c>
-      <c r="I96" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" t="s">
-        <v>635</v>
-      </c>
-      <c r="C97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-      <c r="B98" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="11">
-        <v>8</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>3074</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>2739</v>
-      </c>
-      <c r="G100" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H100" s="4">
-        <v>300055475</v>
-      </c>
-      <c r="I100" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101">
-        <v>277</v>
-      </c>
-      <c r="G101" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H101" s="4">
-        <v>300069026</v>
-      </c>
-      <c r="I101" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C102">
-        <v>264</v>
-      </c>
-      <c r="G102" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H102" s="4">
-        <v>300055165</v>
-      </c>
-      <c r="I102" t="s">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103">
-        <v>244</v>
-      </c>
-      <c r="G103" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H103" s="4">
-        <v>300393188</v>
-      </c>
-      <c r="I103" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="11">
-        <v>9</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>3075</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="14"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107">
-        <v>732</v>
-      </c>
-      <c r="G107" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H107" s="4">
-        <v>300151836</v>
-      </c>
-      <c r="I107" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108">
-        <v>387</v>
-      </c>
-      <c r="G108" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H108" s="4">
-        <v>300263485</v>
-      </c>
-      <c r="I108" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109">
-        <v>299</v>
-      </c>
-      <c r="G109" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H109" s="4">
-        <v>300238450</v>
-      </c>
-      <c r="I109" t="s">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="11">
-        <v>10</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112">
-        <v>8032</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>3090</v>
-      </c>
-      <c r="G112" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H112" s="4">
-        <v>300073708</v>
-      </c>
-      <c r="I112" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>856</v>
-      </c>
-      <c r="C113">
-        <v>50</v>
-      </c>
-      <c r="G113" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H113" s="4">
-        <v>300412140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>857</v>
-      </c>
-      <c r="C114">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>482</v>
-      </c>
-      <c r="C115">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>840</v>
-      </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
-        <v>834</v>
-      </c>
-      <c r="C118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="11">
-        <v>11</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>3076</v>
-      </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="14"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>175</v>
-      </c>
-      <c r="C120">
-        <v>54</v>
-      </c>
-      <c r="G120" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H120" s="4">
-        <v>300138173</v>
-      </c>
-      <c r="I120" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121">
-        <v>9485</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C122">
-        <v>1876</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>3094</v>
-      </c>
-      <c r="G122" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H122" s="4">
-        <v>300248147</v>
-      </c>
-      <c r="I122" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123">
-        <v>1268</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>3095</v>
-      </c>
-      <c r="G123" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H123" s="4">
-        <v>300069283</v>
-      </c>
-      <c r="I123" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124">
-        <v>564</v>
-      </c>
-      <c r="G124" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H124" s="4">
-        <v>300069042</v>
-      </c>
-      <c r="I124" t="s">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C125">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C126">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127">
-        <v>103</v>
-      </c>
-      <c r="G127" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H127" s="4">
-        <v>300069281</v>
-      </c>
-      <c r="I127" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>468</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>524</v>
-      </c>
-      <c r="C129">
-        <v>77</v>
-      </c>
-      <c r="G129" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H129" s="4">
-        <v>300007227</v>
-      </c>
-      <c r="I129" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B130" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130">
-        <v>1205</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>3091</v>
-      </c>
-      <c r="G130" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H130" s="4">
-        <v>300222725</v>
-      </c>
-      <c r="I130" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>105</v>
-      </c>
-      <c r="C131">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132">
-        <v>73</v>
-      </c>
-      <c r="G132" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>2870</v>
-      </c>
-      <c r="I132" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>492</v>
-      </c>
-      <c r="C133">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>491</v>
-      </c>
-      <c r="C136">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>658</v>
-      </c>
-      <c r="C138">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>415</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140">
-        <v>3880</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H140" s="4">
-        <v>300054146</v>
-      </c>
-      <c r="I140" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141">
-        <v>84</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>612</v>
-      </c>
-      <c r="C143">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H143" s="4">
-        <v>300264372</v>
-      </c>
-      <c r="I143" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>747</v>
-      </c>
-      <c r="C144">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H144" s="4">
-        <v>300042909</v>
-      </c>
-      <c r="I144" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145">
-        <v>2603</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>3096</v>
-      </c>
-      <c r="G145" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H145" s="4">
-        <v>300069614</v>
-      </c>
-      <c r="I145" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146">
-        <v>4437</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>3090</v>
-      </c>
-      <c r="G146" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H146" s="4">
-        <v>300132466</v>
-      </c>
-      <c r="I146" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B147" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147">
-        <v>1351</v>
-      </c>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148">
-        <v>4344</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>3097</v>
-      </c>
-      <c r="G148" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H148" s="4">
-        <v>300193790</v>
-      </c>
-      <c r="I148" t="s">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="11">
-        <v>12</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>3077</v>
-      </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="14"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150">
-        <v>4831</v>
-      </c>
-      <c r="G150" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H150" s="4">
-        <v>300055811</v>
-      </c>
-      <c r="I150" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C151">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>90</v>
-      </c>
-      <c r="C152">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C153">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
-      </c>
-      <c r="G154" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H154" s="4">
-        <v>300264024</v>
-      </c>
-      <c r="I154" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
-        <v>765</v>
-      </c>
-      <c r="C155">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B156" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C156">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B157" t="s">
-        <v>567</v>
-      </c>
-      <c r="C157">
-        <v>67</v>
-      </c>
-      <c r="G157" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H157" s="4">
-        <v>300212393</v>
-      </c>
-      <c r="I157" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
-        <v>320</v>
-      </c>
-      <c r="C158">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
-        <v>849</v>
-      </c>
-      <c r="C159">
-        <v>8</v>
-      </c>
-      <c r="G159" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H159" s="4">
-        <v>300209286</v>
-      </c>
-      <c r="I159" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
-        <v>764</v>
-      </c>
-      <c r="C160">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
-        <v>935</v>
-      </c>
-      <c r="C161">
-        <v>5</v>
-      </c>
-      <c r="G161" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H161" s="4">
-        <v>300053634</v>
-      </c>
-      <c r="I161" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" t="s">
-        <v>476</v>
-      </c>
-      <c r="C162">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="11">
-        <v>13</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="14"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B164" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C164">
-        <v>3070</v>
-      </c>
-      <c r="G164" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H164" s="4">
-        <v>300055244</v>
-      </c>
-      <c r="I164" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>67</v>
-      </c>
-      <c r="C165">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
-        <v>497</v>
-      </c>
-      <c r="C166">
-        <v>83</v>
-      </c>
-      <c r="G166" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H166" s="4">
-        <v>300008678</v>
-      </c>
-      <c r="I166" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
-        <v>133</v>
-      </c>
-      <c r="C167">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
-        <v>768</v>
-      </c>
-      <c r="C168">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
-        <v>490</v>
-      </c>
-      <c r="C169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
-        <v>246</v>
-      </c>
-      <c r="C170">
-        <v>79</v>
-      </c>
-      <c r="G170" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H170" s="4">
-        <v>300000681</v>
-      </c>
-      <c r="I170" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B171" t="s">
-        <v>940</v>
-      </c>
-      <c r="C171">
-        <v>15</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3068</v>
-      </c>
-      <c r="G171" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H171" s="4">
-        <v>300212738</v>
-      </c>
-      <c r="I171" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B172" t="s">
-        <v>944</v>
-      </c>
-      <c r="C172">
-        <v>10</v>
-      </c>
-      <c r="G172" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H172" s="4">
-        <v>300007746</v>
-      </c>
-      <c r="I172" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" t="s">
-        <v>622</v>
-      </c>
-      <c r="C173">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="11">
-        <v>14</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>3079</v>
-      </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B175" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C175">
-        <v>441</v>
-      </c>
-      <c r="G175" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H175" s="4">
-        <v>300136900</v>
-      </c>
-      <c r="I175" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C176">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C177">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H177" s="4">
-        <v>300410317</v>
-      </c>
-      <c r="I177" t="s">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C178">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H178" s="4">
-        <v>300007135</v>
-      </c>
-      <c r="I178" t="s">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
-        <v>390</v>
-      </c>
-      <c r="C179">
-        <v>76</v>
-      </c>
-      <c r="G179" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H179" s="4">
-        <v>300249920</v>
-      </c>
-      <c r="I179" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C180">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
-        <v>337</v>
-      </c>
-      <c r="C181">
-        <v>131</v>
-      </c>
-      <c r="G181" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H181" s="4">
-        <v>300263432</v>
-      </c>
-      <c r="I181" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>915</v>
-      </c>
-      <c r="C182">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B186" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C186">
-        <v>476</v>
-      </c>
-      <c r="G186" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H186" s="4">
-        <v>300054225</v>
-      </c>
-      <c r="I186" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C187">
-        <v>6</v>
-      </c>
-      <c r="G187" t="s">
-        <v>2854</v>
-      </c>
-      <c r="I187" t="s">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
-      <c r="B188" t="s">
-        <v>485</v>
-      </c>
-      <c r="C188">
-        <v>87</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>3098</v>
-      </c>
-      <c r="G188" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H188" s="4">
-        <v>300054138</v>
-      </c>
-      <c r="I188" t="s">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="11">
-        <v>15</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>3080</v>
-      </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="14"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B190" t="s">
-        <v>376</v>
-      </c>
-      <c r="C190">
-        <v>10</v>
-      </c>
-      <c r="G190" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H190" s="4">
-        <v>300249989</v>
-      </c>
-      <c r="I190" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C191">
-        <v>24</v>
-      </c>
-      <c r="D191" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>375</v>
-      </c>
-      <c r="C192">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
-        <v>980</v>
-      </c>
-      <c r="C193">
-        <v>9</v>
-      </c>
-      <c r="G193" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H193" s="4">
-        <v>300026657</v>
-      </c>
-      <c r="I193" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C194">
-        <v>5</v>
-      </c>
-      <c r="G194" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H194" s="4">
-        <v>300026656</v>
-      </c>
-      <c r="I194" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
-        <v>289</v>
-      </c>
-      <c r="C195">
-        <v>69</v>
-      </c>
-      <c r="G195" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H195" s="4">
-        <v>300055193</v>
-      </c>
-      <c r="I195" t="s">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
-        <v>116</v>
-      </c>
-      <c r="C196">
-        <v>69</v>
-      </c>
-      <c r="G196" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H196" s="4">
-        <v>300411969</v>
-      </c>
-      <c r="I196" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
-      <c r="B197" t="s">
-        <v>425</v>
-      </c>
-      <c r="C197">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
-      <c r="B198" s="18" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C198">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
-      <c r="B199" t="s">
-        <v>2172</v>
-      </c>
-      <c r="C199">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
-      <c r="B200" t="s">
-        <v>281</v>
-      </c>
-      <c r="C200">
-        <v>69</v>
-      </c>
-      <c r="G200" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H200" s="4">
-        <v>300417787</v>
-      </c>
-      <c r="I200" t="s">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C201">
-        <v>264</v>
-      </c>
-      <c r="G201" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H201" s="4">
-        <v>300185684</v>
-      </c>
-      <c r="I201" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
-      <c r="B202" t="s">
-        <v>551</v>
-      </c>
-      <c r="C202">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
-        <v>2873</v>
-      </c>
-      <c r="H202" s="4">
-        <v>300254790</v>
-      </c>
-      <c r="I202" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
-      <c r="B203" t="s">
-        <v>117</v>
-      </c>
-      <c r="C203">
-        <v>63</v>
-      </c>
-      <c r="G203" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H203" s="4">
-        <v>300015635</v>
-      </c>
-      <c r="I203" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
-        <v>2180</v>
-      </c>
-      <c r="C205">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C206">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C207">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C208">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B210" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C210">
-        <v>175</v>
-      </c>
-      <c r="G210" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H210" s="4">
-        <v>300193993</v>
-      </c>
-      <c r="I210" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C211">
-        <v>10</v>
-      </c>
-      <c r="G211" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H211" s="4">
-        <v>300255244</v>
-      </c>
-      <c r="I211" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="11">
-        <v>16</v>
-      </c>
-      <c r="B212" s="12" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="14"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213">
-        <v>3107</v>
-      </c>
-      <c r="E213" s="17" t="s">
-        <v>3104</v>
-      </c>
-      <c r="F213" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
-      <c r="B214" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C214">
-        <v>94</v>
-      </c>
-      <c r="G214" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H214" s="4">
-        <v>300263340</v>
-      </c>
-      <c r="I214" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
-      <c r="B215" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C215">
-        <v>251</v>
-      </c>
-      <c r="G215" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H215" s="4">
-        <v>300054704</v>
-      </c>
-      <c r="I215" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="11">
-        <v>17</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="14"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217">
-        <v>2602</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>3103</v>
-      </c>
-      <c r="G217" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H217" s="4">
-        <v>300061886</v>
-      </c>
-      <c r="I217" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B218" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C218">
-        <v>517</v>
-      </c>
-      <c r="G218" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H218" s="4">
-        <v>300005283</v>
-      </c>
-      <c r="I218" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B219" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C219">
-        <v>8</v>
-      </c>
-      <c r="G219" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H219" s="4">
-        <v>300005246</v>
-      </c>
-      <c r="I219" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="11" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>3081</v>
-      </c>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="14"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
-        <v>424</v>
-      </c>
-      <c r="C221">
-        <v>52</v>
-      </c>
-      <c r="D221" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G221" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H221" s="4">
-        <v>300055718</v>
-      </c>
-      <c r="I221" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>628</v>
-      </c>
-      <c r="C222">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
-        <v>526</v>
-      </c>
-      <c r="C223">
-        <v>15</v>
-      </c>
-      <c r="E223" s="17" t="s">
-        <v>3099</v>
-      </c>
-      <c r="G223" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H223" s="4">
-        <v>300379421</v>
-      </c>
-      <c r="I223" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B224" t="s">
-        <v>430</v>
-      </c>
-      <c r="C224">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
-        <v>334</v>
-      </c>
-      <c r="C225">
-        <v>27</v>
-      </c>
-      <c r="G225" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H225" s="4">
-        <v>300033260</v>
-      </c>
-      <c r="I225" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C226">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
-        <v>753</v>
-      </c>
-      <c r="C227">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
-        <v>863</v>
-      </c>
-      <c r="C228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C229">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C230">
-        <v>6</v>
-      </c>
-      <c r="G230" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H230" s="4">
-        <v>300010662</v>
-      </c>
-      <c r="I230" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
-        <v>811</v>
-      </c>
-      <c r="C231">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C232">
-        <v>6</v>
-      </c>
-      <c r="G232" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H232" s="4">
-        <v>300221157</v>
-      </c>
-      <c r="I232" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C233">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B234" t="s">
-        <v>799</v>
-      </c>
-      <c r="C234">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>518</v>
-      </c>
-      <c r="C235">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
-        <v>515</v>
-      </c>
-      <c r="C236">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
-        <v>516</v>
-      </c>
-      <c r="C237">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B239" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C239">
-        <v>114</v>
-      </c>
-      <c r="G239" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H239" s="4">
-        <v>300054463</v>
-      </c>
-      <c r="I239" t="s">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B240" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240">
-        <v>171</v>
-      </c>
-      <c r="D240" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G240" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H240" s="4">
-        <v>300179372</v>
-      </c>
-      <c r="I240" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B241" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-      <c r="G241" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H241" s="4">
-        <v>300404580</v>
-      </c>
-      <c r="I241" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B242" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C242">
-        <v>82</v>
-      </c>
-      <c r="G242" t="s">
-        <v>2873</v>
-      </c>
-      <c r="H242" s="4">
-        <v>300008631</v>
-      </c>
-      <c r="I242" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
-        <v>806</v>
-      </c>
-      <c r="C243">
-        <v>28</v>
-      </c>
-      <c r="G243" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H243" s="4">
-        <v>300000206</v>
-      </c>
-      <c r="I243" t="s">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
-        <v>87</v>
-      </c>
-      <c r="C244">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
-        <v>61</v>
-      </c>
-      <c r="C245">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B246" t="s">
-        <v>125</v>
-      </c>
-      <c r="C246">
-        <v>145</v>
-      </c>
-      <c r="G246" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H246" s="4">
-        <v>300054512</v>
-      </c>
-      <c r="I246" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
-        <v>853</v>
-      </c>
-      <c r="C247">
-        <v>34</v>
-      </c>
-      <c r="G247" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H247" s="4">
-        <v>300008090</v>
-      </c>
-      <c r="I247" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
-        <v>704</v>
-      </c>
-      <c r="C248">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B249" t="s">
-        <v>253</v>
-      </c>
-      <c r="C249">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="11" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
-      <c r="G250" s="12"/>
-      <c r="H250" s="13"/>
-      <c r="I250" s="14"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
-        <v>672</v>
-      </c>
-      <c r="C251">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B252" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>642</v>
-      </c>
-      <c r="C253">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
-        <v>259</v>
-      </c>
-      <c r="C254">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
-        <v>123</v>
-      </c>
-      <c r="C255">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
-        <v>270</v>
-      </c>
-      <c r="C256">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B257" t="s">
-        <v>865</v>
-      </c>
-      <c r="C257">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B258" t="s">
-        <v>626</v>
-      </c>
-      <c r="C258">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B259" t="s">
-        <v>241</v>
-      </c>
-      <c r="C259">
-        <v>189</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>3100</v>
-      </c>
-      <c r="G259" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H259" s="4" t="s">
-        <v>2866</v>
-      </c>
-      <c r="I259" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B260" t="s">
-        <v>149</v>
-      </c>
-      <c r="C260">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
-        <v>207</v>
-      </c>
-      <c r="C261">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
-        <v>786</v>
-      </c>
-      <c r="C262">
-        <v>4</v>
-      </c>
-      <c r="D262" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
-        <v>288</v>
-      </c>
-      <c r="C263">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C264">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C265">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B266" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>822</v>
-      </c>
-      <c r="C267">
-        <v>3</v>
-      </c>
-      <c r="G267" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H267" s="4">
-        <v>300026023</v>
-      </c>
-      <c r="I267" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B268" t="s">
-        <v>732</v>
-      </c>
-      <c r="C268">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B269" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C269">
-        <v>4</v>
-      </c>
-      <c r="D269" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="11" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B270" s="12" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
-      <c r="F270" s="12"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="13"/>
-      <c r="I270" s="14"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B271" t="s">
-        <v>326</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C272">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B273" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C273">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B274" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C274">
-        <v>80</v>
-      </c>
-      <c r="G274" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H274" s="4">
-        <v>300112347</v>
-      </c>
-      <c r="I274" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B275" t="s">
-        <v>226</v>
-      </c>
-      <c r="C275">
-        <v>11</v>
-      </c>
-      <c r="G275" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H275" s="4">
-        <v>300054777</v>
-      </c>
-      <c r="I275" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B276" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C276">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B277" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C277">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B278" t="s">
-        <v>829</v>
-      </c>
-      <c r="C278">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B279" t="s">
-        <v>812</v>
-      </c>
-      <c r="C279">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B280" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C280">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B281" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="C281">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B282" s="3" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B283" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C283">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B284" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C284">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B285" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="C285">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B286" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C286">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B287" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C288">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="11" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>2434</v>
-      </c>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
-      <c r="F289" s="12"/>
-      <c r="G289" s="12"/>
-      <c r="H289" s="13"/>
-      <c r="I289" s="14"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B290" t="s">
-        <v>358</v>
-      </c>
-      <c r="C290">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B291" t="s">
-        <v>481</v>
-      </c>
-      <c r="C291">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B292" t="s">
-        <v>824</v>
-      </c>
-      <c r="C292">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C293">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B294" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C294">
-        <v>2</v>
-      </c>
-      <c r="G294" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H294" s="4">
-        <v>300054731</v>
-      </c>
-      <c r="I294" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
-        <v>922</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B297" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B298" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B299" t="s">
-        <v>435</v>
-      </c>
-      <c r="C299">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B300" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C300">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B301" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C301">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B302" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C302">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:XFD302" xr:uid="{94AA1B89-FAA4-481D-915A-A05AE901FFCA}"/>
-  <hyperlinks>
-    <hyperlink ref="E42" location="'overzicht associaties (alle)'!A44" display="lijst schooldisciplines" xr:uid="{EE9829E1-C2D0-43C1-BB7A-E5CF885B5A26}"/>
-    <hyperlink ref="E53" location="'overzicht associaties (alle)'!A75" display="lijst related terms" xr:uid="{BB86832A-E906-4900-86A9-5D6F74720864}"/>
-    <hyperlink ref="E57" location="'overzicht associaties (alle)'!A91" display="lijst sportdisciplines" xr:uid="{5D47BC67-0937-486A-80AB-63FB225E8827}"/>
-    <hyperlink ref="E130" location="'overzicht associaties (alle)'!A91" display="lijst sportdisciplines" xr:uid="{A1E44F6B-ECE5-4A4D-9E77-3E83428545A4}"/>
-    <hyperlink ref="E63" location="'overzicht associaties (alle)'!A140" display="lijst beroepen" xr:uid="{38554109-9707-4523-8548-42405E28C028}"/>
-    <hyperlink ref="E84" location="'overzicht associaties (alle)'!A208" display="lijst voeding" xr:uid="{2DADB9BB-B004-47F5-813E-28AD67BB0CCF}"/>
-    <hyperlink ref="E112" location="'overzicht associaties (alle)'!A247" display="lijst related terms" xr:uid="{ADBC0578-DB15-494D-8AEF-EBCB0A027FC3}"/>
-    <hyperlink ref="E121" location="'overzicht associaties (alle)'!A284" display="lijst circusdisciplines" xr:uid="{5332A060-54CB-4678-803B-928A0D58FB3F}"/>
-    <hyperlink ref="E122" location="'overzicht associaties (alle)'!A319" display="lijst opvoeringen" xr:uid="{C832773C-79DF-4801-811C-7DF84BBD9C88}"/>
-    <hyperlink ref="E123" location="'overzicht associaties (alle)'!A387" display="lijst optochten" xr:uid="{887370F6-CFB6-4B0C-9E92-22CB58389CA6}"/>
-    <hyperlink ref="E145" location="'overzicht associaties (alle)'!A459" display="lijst feesten" xr:uid="{D3717A31-DE9C-42CD-9E0A-897EE8D27FCF}"/>
-    <hyperlink ref="E146" location="'overzicht associaties (alle)'!A468" display="lijst related terms" xr:uid="{B46179BC-5393-4CAF-B748-6A038B0F8579}"/>
-    <hyperlink ref="E148" location="'overzicht associaties (alle)'!A473" display="lijst recreatieplekken" xr:uid="{66B1F216-4B2C-4144-80CB-619845B67692}"/>
-    <hyperlink ref="E188" location="'overzicht associaties (alle)'!A591" display="lijst kunstvormen" xr:uid="{5D5FD1CF-BF75-4571-895A-7FC1EFE4B8F3}"/>
-    <hyperlink ref="E213" location="'overzicht associaties (alle)'!A624" display="lijst ambachten" xr:uid="{03FF18C8-C256-4414-9C78-9F05BBA285CD}"/>
-    <hyperlink ref="E217" location="'overzicht associaties (alle)'!A690" display="lijst handelszaken" xr:uid="{C0EE9C3C-9FF1-4BCF-991A-1FCF03FC941E}"/>
-    <hyperlink ref="E223" location="'overzicht associaties (alle)'!A728" display="lijst fabrieken" xr:uid="{2DD5D2C8-05D3-4AE7-813B-A7715AA75A92}"/>
-    <hyperlink ref="E259" location="'overzicht associaties (alle)'!A786" display="lijst posities koningshuis" xr:uid="{25795F3F-7ADA-428C-ADD2-185A15A19D16}"/>
-    <hyperlink ref="E271" location="'overzicht associaties (alle)'!A806" display="lijst wereldtentoonstellingen" xr:uid="{001308BA-747B-47E3-9C5D-26B6FBC3093F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE3D2D2-64DD-4A61-BCCA-B27BF8E11166}">
   <dimension ref="A1:H827"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D801" sqref="D801"/>
     </sheetView>
   </sheetViews>
@@ -14275,52 +10285,52 @@
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="33.21875" customWidth="1"/>
     <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="174.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>3069</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>3082</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2435</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3067</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3083</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3084</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>3085</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>3086</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1944</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C3">
@@ -14329,7 +10339,7 @@
       <c r="F3" t="s">
         <v>2854</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>300069456</v>
       </c>
       <c r="H3" t="s">
@@ -14337,7 +10347,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>939</v>
       </c>
       <c r="C4">
@@ -14346,7 +10356,7 @@
       <c r="F4" t="s">
         <v>2854</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>300264546</v>
       </c>
       <c r="H4" t="s">
@@ -14354,7 +10364,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>1178</v>
       </c>
       <c r="C5">
@@ -14368,7 +10378,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C6">
@@ -14377,7 +10387,7 @@
       <c r="F6" t="s">
         <v>2859</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>2884</v>
       </c>
       <c r="H6" t="s">
@@ -14385,7 +10395,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>169</v>
       </c>
       <c r="C7">
@@ -14393,7 +10403,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C8">
@@ -14402,7 +10412,7 @@
       <c r="F8" t="s">
         <v>2854</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>300069057</v>
       </c>
       <c r="H8" t="s">
@@ -14424,7 +10434,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>1367</v>
       </c>
       <c r="C10">
@@ -14432,7 +10442,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>668</v>
       </c>
       <c r="C11">
@@ -14472,7 +10482,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>671</v>
       </c>
       <c r="C16">
@@ -14504,7 +10514,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C20">
@@ -14513,7 +10523,7 @@
       <c r="F20" t="s">
         <v>2854</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>300404322</v>
       </c>
       <c r="H20" t="s">
@@ -14521,7 +10531,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C21">
@@ -14530,7 +10540,7 @@
       <c r="F21" t="s">
         <v>2854</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>300069053</v>
       </c>
       <c r="H21" t="s">
@@ -14545,12 +10555,12 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>3114</v>
+        <v>3095</v>
       </c>
       <c r="F22" t="s">
         <v>2854</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>300264820</v>
       </c>
       <c r="H22" t="s">
@@ -14565,12 +10575,12 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>3113</v>
+        <v>3094</v>
       </c>
       <c r="F23" t="s">
         <v>2854</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>300264822</v>
       </c>
       <c r="H23" t="s">
@@ -14578,7 +10588,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C24">
@@ -14587,7 +10597,7 @@
       <c r="F24" t="s">
         <v>2854</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>300069093</v>
       </c>
       <c r="H24" t="s">
@@ -14595,7 +10605,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C25">
@@ -14604,7 +10614,7 @@
       <c r="F25" t="s">
         <v>2854</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>300133101</v>
       </c>
       <c r="H25" t="s">
@@ -14612,7 +10622,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>885</v>
       </c>
       <c r="C26">
@@ -14621,7 +10631,7 @@
       <c r="F26" t="s">
         <v>2854</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>300133097</v>
       </c>
       <c r="H26" t="s">
@@ -14629,7 +10639,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>151</v>
       </c>
       <c r="C27">
@@ -14638,7 +10648,7 @@
       <c r="F27" t="s">
         <v>2854</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>300133099</v>
       </c>
       <c r="H27" t="s">
@@ -14646,7 +10656,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>884</v>
       </c>
       <c r="C28">
@@ -14655,26 +10665,26 @@
       <c r="F28" t="s">
         <v>2854</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>300133093</v>
       </c>
       <c r="H28" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <v>2</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>1909</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -14686,7 +10696,7 @@
       <c r="F30" t="s">
         <v>2873</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>300189588</v>
       </c>
       <c r="H30" t="s">
@@ -14694,7 +10704,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C31">
@@ -14702,7 +10712,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C32">
@@ -14711,7 +10721,7 @@
       <c r="F32" t="s">
         <v>2859</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>2962</v>
       </c>
       <c r="H32" t="s">
@@ -14719,7 +10729,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>689</v>
       </c>
       <c r="C33">
@@ -14728,7 +10738,7 @@
       <c r="F33" t="s">
         <v>2854</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>300006698</v>
       </c>
       <c r="H33" t="s">
@@ -14745,7 +10755,7 @@
       <c r="F34" t="s">
         <v>2854</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>300189561</v>
       </c>
       <c r="H34" t="s">
@@ -14781,7 +10791,7 @@
       <c r="F37" t="s">
         <v>2854</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>300247989</v>
       </c>
       <c r="H37" t="s">
@@ -14789,7 +10799,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C38">
@@ -14798,7 +10808,7 @@
       <c r="F38" t="s">
         <v>2854</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>300391329</v>
       </c>
       <c r="H38" t="s">
@@ -14822,7 +10832,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C41">
@@ -14831,7 +10841,7 @@
       <c r="F41" t="s">
         <v>2854</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>300054360</v>
       </c>
       <c r="H41" t="s">
@@ -14839,7 +10849,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C42">
@@ -14848,7 +10858,7 @@
       <c r="F42" t="s">
         <v>2854</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>300266108</v>
       </c>
       <c r="H42" t="s">
@@ -14865,7 +10875,7 @@
       <c r="F43" t="s">
         <v>2854</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>300137966</v>
       </c>
       <c r="H43" t="s">
@@ -14914,7 +10924,7 @@
       <c r="F48" t="s">
         <v>2854</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>300054462</v>
       </c>
       <c r="H48" t="s">
@@ -14963,7 +10973,7 @@
       <c r="F53" t="s">
         <v>2854</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>300054354</v>
       </c>
       <c r="H53" t="s">
@@ -15028,7 +11038,7 @@
       <c r="F60" t="s">
         <v>2854</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>300054568</v>
       </c>
       <c r="H60" t="s">
@@ -15068,7 +11078,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C65">
@@ -15077,7 +11087,7 @@
       <c r="F65" t="s">
         <v>2854</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>300211037</v>
       </c>
       <c r="H65" t="s">
@@ -15085,7 +11095,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C66">
@@ -15094,7 +11104,7 @@
       <c r="F66" t="s">
         <v>2854</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>300263267</v>
       </c>
       <c r="H66" t="s">
@@ -15102,7 +11112,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C67">
@@ -15125,22 +11135,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="11">
+    <row r="70" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
         <v>3</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>1913</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="14"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="15" t="s">
         <v>364</v>
       </c>
       <c r="C71">
@@ -15149,7 +11159,7 @@
       <c r="F71" t="s">
         <v>2854</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>300025944</v>
       </c>
       <c r="H71" t="s">
@@ -15157,7 +11167,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C72">
@@ -15166,7 +11176,7 @@
       <c r="F72" t="s">
         <v>2854</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>300137542</v>
       </c>
       <c r="H72" t="s">
@@ -15174,7 +11184,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="15" t="s">
         <v>366</v>
       </c>
       <c r="C73">
@@ -15183,7 +11193,7 @@
       <c r="F73" t="s">
         <v>2859</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>2977</v>
       </c>
       <c r="H73" t="s">
@@ -15202,7 +11212,7 @@
       <c r="F74" t="s">
         <v>2854</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <v>300250737</v>
       </c>
       <c r="H74" t="s">
@@ -15219,7 +11229,7 @@
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="3"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15232,12 +11242,12 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="3"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>3108</v>
+        <v>3089</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -15245,7 +11255,7 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="4"/>
+      <c r="G77" s="3"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15260,7 +11270,7 @@
       <c r="F78" t="s">
         <v>2854</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <v>300005665</v>
       </c>
       <c r="H78" t="s">
@@ -15277,7 +11287,7 @@
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79" s="4"/>
+      <c r="G79" s="3"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15292,7 +11302,7 @@
       </c>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="3"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15305,7 +11315,7 @@
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="3"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15318,7 +11328,7 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="3"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15331,7 +11341,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="3"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15344,7 +11354,7 @@
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="3"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15357,11 +11367,11 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" s="4"/>
+      <c r="G85" s="3"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C86">
@@ -15369,7 +11379,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C87">
@@ -15378,7 +11388,7 @@
       <c r="F87" t="s">
         <v>2859</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="3" t="s">
         <v>2890</v>
       </c>
       <c r="H87" t="s">
@@ -15386,7 +11396,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C88">
@@ -15395,7 +11405,7 @@
       <c r="F88" t="s">
         <v>2854</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <v>300222725</v>
       </c>
       <c r="H88" t="s">
@@ -15444,7 +11454,7 @@
       <c r="F93" t="s">
         <v>2854</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="3">
         <v>300222782</v>
       </c>
       <c r="H93" t="s">
@@ -15469,7 +11479,7 @@
       <c r="F95" t="s">
         <v>2854</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="3">
         <v>300222793</v>
       </c>
       <c r="H95" t="s">
@@ -15516,7 +11526,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>3107</v>
+        <v>3088</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -15532,7 +11542,7 @@
       <c r="F101" t="s">
         <v>2854</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="3">
         <v>300239495</v>
       </c>
       <c r="H101" t="s">
@@ -15581,7 +11591,7 @@
       <c r="F106" t="s">
         <v>2854</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="3">
         <v>300374825</v>
       </c>
       <c r="H106" t="s">
@@ -15638,7 +11648,7 @@
       <c r="F112" t="s">
         <v>2854</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>300438833</v>
       </c>
       <c r="H112" t="s">
@@ -15655,7 +11665,7 @@
       <c r="F113" t="s">
         <v>2854</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="3">
         <v>300211461</v>
       </c>
       <c r="H113" t="s">
@@ -15744,7 +11754,7 @@
       <c r="F123" t="s">
         <v>2854</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="3">
         <v>300054144</v>
       </c>
       <c r="H123" t="s">
@@ -15791,22 +11801,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="11">
+    <row r="129" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="9">
         <v>4</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>3070</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="14"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C130">
@@ -15815,7 +11825,7 @@
       <c r="F130" t="s">
         <v>2854</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="3">
         <v>300055475</v>
       </c>
       <c r="H130" t="s">
@@ -15823,7 +11833,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C131">
@@ -15832,7 +11842,7 @@
       <c r="F131" t="s">
         <v>2854</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="3">
         <v>300069026</v>
       </c>
       <c r="H131" t="s">
@@ -15840,7 +11850,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C132">
@@ -15849,7 +11859,7 @@
       <c r="F132" t="s">
         <v>2854</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="3">
         <v>300055165</v>
       </c>
       <c r="H132" t="s">
@@ -15866,7 +11876,7 @@
       <c r="F133" t="s">
         <v>2854</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="3">
         <v>300393188</v>
       </c>
       <c r="H133" t="s">
@@ -15883,7 +11893,7 @@
       <c r="F134" t="s">
         <v>2854</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="3">
         <v>300004521</v>
       </c>
       <c r="H134" t="s">
@@ -15900,7 +11910,7 @@
       <c r="F135" t="s">
         <v>2854</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="3">
         <v>300263369</v>
       </c>
       <c r="H135" t="s">
@@ -15981,7 +11991,7 @@
       <c r="F144" t="s">
         <v>2859</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" s="3" t="s">
         <v>3019</v>
       </c>
       <c r="H144" t="s">
@@ -16126,7 +12136,7 @@
       <c r="F161" t="s">
         <v>2854</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="3">
         <v>300025619</v>
       </c>
       <c r="H161" t="s">
@@ -16167,7 +12177,7 @@
       <c r="F165" t="s">
         <v>2854</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="3">
         <v>300380097</v>
       </c>
       <c r="H165" t="s">
@@ -16208,7 +12218,7 @@
       <c r="F169" t="s">
         <v>2854</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="3">
         <v>300025617</v>
       </c>
       <c r="H169" t="s">
@@ -16345,7 +12355,7 @@
       <c r="D185"/>
       <c r="E185"/>
       <c r="F185"/>
-      <c r="G185" s="4"/>
+      <c r="G185" s="3"/>
       <c r="H185"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -16367,22 +12377,22 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="11">
+    <row r="188" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="9">
         <v>5</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="10" t="s">
         <v>3071</v>
       </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="14"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C189">
@@ -16391,7 +12401,7 @@
       <c r="F189" t="s">
         <v>2859</v>
       </c>
-      <c r="G189" s="4" t="s">
+      <c r="G189" s="3" t="s">
         <v>3049</v>
       </c>
       <c r="H189" t="s">
@@ -16399,7 +12409,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C190">
@@ -16408,7 +12418,7 @@
       <c r="F190" t="s">
         <v>2854</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="3">
         <v>300124520</v>
       </c>
       <c r="H190" t="s">
@@ -16416,7 +12426,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C191">
@@ -16425,7 +12435,7 @@
       <c r="F191" t="s">
         <v>2854</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="3">
         <v>300004514</v>
       </c>
       <c r="H191" t="s">
@@ -16433,7 +12443,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C192">
@@ -16441,7 +12451,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C193">
@@ -16450,7 +12460,7 @@
       <c r="F193" t="s">
         <v>2854</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="3">
         <v>300004419</v>
       </c>
       <c r="H193" t="s">
@@ -16458,7 +12468,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C194">
@@ -16466,7 +12476,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="15" t="s">
         <v>379</v>
       </c>
       <c r="C195">
@@ -16475,7 +12485,7 @@
       <c r="F195" t="s">
         <v>2854</v>
       </c>
-      <c r="G195" s="4">
+      <c r="G195" s="3">
         <v>300051479</v>
       </c>
       <c r="H195" t="s">
@@ -16483,7 +12493,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="15" t="s">
         <v>374</v>
       </c>
       <c r="C196">
@@ -16492,7 +12502,7 @@
       <c r="F196" t="s">
         <v>2854</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196" s="3">
         <v>300004197</v>
       </c>
       <c r="H196" t="s">
@@ -16507,12 +12517,12 @@
         <v>28</v>
       </c>
       <c r="E197" t="s">
-        <v>3115</v>
+        <v>3096</v>
       </c>
       <c r="F197" t="s">
         <v>2854</v>
       </c>
-      <c r="G197" s="4">
+      <c r="G197" s="3">
         <v>300185749</v>
       </c>
       <c r="H197" t="s">
@@ -16527,12 +12537,12 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>3115</v>
+        <v>3096</v>
       </c>
       <c r="F198" t="s">
         <v>2854</v>
       </c>
-      <c r="G198" s="4">
+      <c r="G198" s="3">
         <v>300037366</v>
       </c>
       <c r="H198" t="s">
@@ -16549,7 +12559,7 @@
       <c r="F199" t="s">
         <v>2854</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="3">
         <v>300008090</v>
       </c>
       <c r="H199" t="s">
@@ -16566,7 +12576,7 @@
       <c r="F200" t="s">
         <v>2854</v>
       </c>
-      <c r="G200" s="4">
+      <c r="G200" s="3">
         <v>300037680</v>
       </c>
       <c r="H200" t="s">
@@ -16574,7 +12584,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="15" t="s">
         <v>239</v>
       </c>
       <c r="C201">
@@ -16583,7 +12593,7 @@
       <c r="F201" t="s">
         <v>2854</v>
       </c>
-      <c r="G201" s="4">
+      <c r="G201" s="3">
         <v>300037581</v>
       </c>
       <c r="H201" t="s">
@@ -16600,7 +12610,7 @@
       <c r="F202" t="s">
         <v>2854</v>
       </c>
-      <c r="G202" s="4">
+      <c r="G202" s="3">
         <v>300191243</v>
       </c>
       <c r="H202" t="s">
@@ -16608,7 +12618,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C203">
@@ -16617,29 +12627,29 @@
       <c r="F203" t="s">
         <v>2854</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="3">
         <v>300249494</v>
       </c>
       <c r="H203" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="11">
+    <row r="204" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="9">
         <v>6</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="10" t="s">
         <v>3072</v>
       </c>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="14"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="12"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C205">
@@ -16648,7 +12658,7 @@
       <c r="F205" t="s">
         <v>2854</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="3">
         <v>300254496</v>
       </c>
       <c r="H205" t="s">
@@ -16665,7 +12675,7 @@
       <c r="F206" t="s">
         <v>2854</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="3">
         <v>300027043</v>
       </c>
       <c r="H206" t="s">
@@ -16682,7 +12692,7 @@
       <c r="F207" t="s">
         <v>2854</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="3">
         <v>300389829</v>
       </c>
       <c r="H207" t="s">
@@ -16699,7 +12709,7 @@
       <c r="F208" t="s">
         <v>2854</v>
       </c>
-      <c r="G208" s="4">
+      <c r="G208" s="3">
         <v>300379161</v>
       </c>
       <c r="H208" t="s">
@@ -16727,7 +12737,7 @@
       <c r="F210" t="s">
         <v>2854</v>
       </c>
-      <c r="G210" s="4">
+      <c r="G210" s="3">
         <v>300387485</v>
       </c>
       <c r="H210" t="s">
@@ -16758,7 +12768,7 @@
       <c r="F212" t="s">
         <v>2854</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="3">
         <v>300250954</v>
       </c>
       <c r="H212" t="s">
@@ -16775,7 +12785,7 @@
       <c r="F213" t="s">
         <v>2854</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="3">
         <v>300011868</v>
       </c>
       <c r="H213" t="s">
@@ -16800,7 +12810,7 @@
       <c r="F215" t="s">
         <v>2854</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="3">
         <v>300266767</v>
       </c>
       <c r="H215" t="s">
@@ -16808,7 +12818,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B216" s="18" t="s">
+      <c r="B216" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C216">
@@ -16817,7 +12827,7 @@
       <c r="F216" t="s">
         <v>2854</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="3">
         <v>300389821</v>
       </c>
       <c r="H216" t="s">
@@ -16825,7 +12835,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C217">
@@ -16834,7 +12844,7 @@
       <c r="F217" t="s">
         <v>2854</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="3">
         <v>300254662</v>
       </c>
       <c r="H217" t="s">
@@ -16842,29 +12852,29 @@
       </c>
     </row>
     <row r="218" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C218">
         <v>1516</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="11">
+    <row r="219" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="9">
         <v>7</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="10" t="s">
         <v>3073</v>
       </c>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="14"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="12"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C220">
@@ -16873,7 +12883,7 @@
       <c r="F220" t="s">
         <v>2854</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="3">
         <v>300055133</v>
       </c>
       <c r="H220" t="s">
@@ -16881,7 +12891,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C221">
@@ -16889,7 +12899,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C222">
@@ -16897,7 +12907,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C223">
@@ -16917,7 +12927,7 @@
       <c r="F224" t="s">
         <v>2854</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="3">
         <v>300236306</v>
       </c>
       <c r="H224" t="s">
@@ -16942,7 +12952,7 @@
       <c r="F226" t="s">
         <v>2854</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226" s="3">
         <v>300404880</v>
       </c>
       <c r="H226" t="s">
@@ -16961,7 +12971,7 @@
       <c r="F227" t="s">
         <v>2854</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="3">
         <v>300006676</v>
       </c>
       <c r="H227" t="s">
@@ -16978,7 +12988,7 @@
       <c r="D228"/>
       <c r="E228"/>
       <c r="F228"/>
-      <c r="G228" s="4"/>
+      <c r="G228" s="3"/>
       <c r="H228"/>
     </row>
     <row r="229" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16991,25 +13001,25 @@
       <c r="D229"/>
       <c r="E229"/>
       <c r="F229"/>
-      <c r="G229" s="4"/>
+      <c r="G229" s="3"/>
       <c r="H229"/>
     </row>
-    <row r="230" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="11">
+    <row r="230" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="9">
         <v>8</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="B230" s="10" t="s">
         <v>3074</v>
       </c>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="14"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="12"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C231">
@@ -17018,7 +13028,7 @@
       <c r="F231" t="s">
         <v>2854</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="3">
         <v>300055475</v>
       </c>
       <c r="H231" t="s">
@@ -17026,7 +13036,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C232">
@@ -17035,7 +13045,7 @@
       <c r="F232" t="s">
         <v>2854</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232" s="3">
         <v>300069026</v>
       </c>
       <c r="H232" t="s">
@@ -17043,7 +13053,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="15" t="s">
         <v>287</v>
       </c>
       <c r="C233">
@@ -17052,7 +13062,7 @@
       <c r="F233" t="s">
         <v>2854</v>
       </c>
-      <c r="G233" s="4">
+      <c r="G233" s="3">
         <v>300055165</v>
       </c>
       <c r="H233" t="s">
@@ -17060,7 +13070,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C234">
@@ -17069,7 +13079,7 @@
       <c r="F234" t="s">
         <v>2854</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="3">
         <v>300393188</v>
       </c>
       <c r="H234" t="s">
@@ -17092,22 +13102,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="11">
+    <row r="237" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="9">
         <v>9</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B237" s="10" t="s">
         <v>3075</v>
       </c>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="13"/>
-      <c r="H237" s="14"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="12"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C238">
@@ -17116,7 +13126,7 @@
       <c r="F238" t="s">
         <v>2854</v>
       </c>
-      <c r="G238" s="4">
+      <c r="G238" s="3">
         <v>300151836</v>
       </c>
       <c r="H238" t="s">
@@ -17124,7 +13134,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C239">
@@ -17133,7 +13143,7 @@
       <c r="F239" t="s">
         <v>2854</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="3">
         <v>300263485</v>
       </c>
       <c r="H239" t="s">
@@ -17141,7 +13151,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B240" s="18" t="s">
+      <c r="B240" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C240">
@@ -17150,7 +13160,7 @@
       <c r="F240" t="s">
         <v>2854</v>
       </c>
-      <c r="G240" s="4">
+      <c r="G240" s="3">
         <v>300238450</v>
       </c>
       <c r="H240" t="s">
@@ -17165,22 +13175,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="11">
+    <row r="242" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="9">
         <v>10</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B242" s="10" t="s">
         <v>2088</v>
       </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="13"/>
-      <c r="H242" s="14"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="12"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B243" s="18" t="s">
+      <c r="B243" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C243">
@@ -17189,7 +13199,7 @@
       <c r="F243" t="s">
         <v>2854</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="3">
         <v>300073708</v>
       </c>
       <c r="H243" t="s">
@@ -17206,7 +13216,7 @@
       <c r="F244" t="s">
         <v>2854</v>
       </c>
-      <c r="G244" s="4">
+      <c r="G244" s="3">
         <v>300007466</v>
       </c>
       <c r="H244" t="s">
@@ -17223,7 +13233,7 @@
       <c r="F245" t="s">
         <v>2854</v>
       </c>
-      <c r="G245" s="4">
+      <c r="G245" s="3">
         <v>300264326</v>
       </c>
       <c r="H245" t="s">
@@ -17286,7 +13296,7 @@
       <c r="F251" t="s">
         <v>2854</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251" s="3">
         <v>300025774</v>
       </c>
       <c r="H251" t="s">
@@ -17383,7 +13393,7 @@
       <c r="F262" t="s">
         <v>2854</v>
       </c>
-      <c r="G262" s="4">
+      <c r="G262" s="3">
         <v>300004590</v>
       </c>
       <c r="H262" t="s">
@@ -17472,7 +13482,7 @@
       <c r="F272" t="s">
         <v>2854</v>
       </c>
-      <c r="G272" s="4">
+      <c r="G272" s="3">
         <v>300412140</v>
       </c>
       <c r="H272" t="s">
@@ -17519,19 +13529,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="11">
+    <row r="278" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="9">
         <v>11</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B278" s="10" t="s">
         <v>3076</v>
       </c>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="14"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="12"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
@@ -17543,7 +13553,7 @@
       <c r="F279" t="s">
         <v>2854</v>
       </c>
-      <c r="G279" s="4">
+      <c r="G279" s="3">
         <v>300138173</v>
       </c>
       <c r="H279" t="s">
@@ -17551,7 +13561,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C280">
@@ -17568,7 +13578,7 @@
       <c r="F281" t="s">
         <v>2854</v>
       </c>
-      <c r="G281" s="4">
+      <c r="G281" s="3">
         <v>300263157</v>
       </c>
       <c r="H281" t="s">
@@ -17593,7 +13603,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>3109</v>
+        <v>3090</v>
       </c>
       <c r="C284">
         <v>270</v>
@@ -17647,7 +13657,7 @@
       <c r="F289" t="s">
         <v>2854</v>
       </c>
-      <c r="G289" s="4">
+      <c r="G289" s="3">
         <v>300264526</v>
       </c>
       <c r="H289" t="s">
@@ -17680,7 +13690,7 @@
       <c r="F292" t="s">
         <v>2859</v>
       </c>
-      <c r="G292" s="4" t="s">
+      <c r="G292" s="3" t="s">
         <v>2906</v>
       </c>
       <c r="H292" t="s">
@@ -17743,7 +13753,7 @@
       <c r="F298" t="s">
         <v>2859</v>
       </c>
-      <c r="G298" s="4" t="s">
+      <c r="G298" s="3" t="s">
         <v>2910</v>
       </c>
       <c r="H298" t="s">
@@ -17760,7 +13770,7 @@
       <c r="F299" t="s">
         <v>2859</v>
       </c>
-      <c r="G299" s="4" t="s">
+      <c r="G299" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="H299" t="s">
@@ -17825,7 +13835,7 @@
       <c r="F306" t="s">
         <v>2859</v>
       </c>
-      <c r="G306" s="4" t="s">
+      <c r="G306" s="3" t="s">
         <v>2860</v>
       </c>
       <c r="H306" t="s">
@@ -17857,7 +13867,7 @@
       </c>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="15" t="s">
         <v>312</v>
       </c>
       <c r="C310">
@@ -17897,7 +13907,7 @@
       </c>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B315" s="18" t="s">
+      <c r="B315" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C315">
@@ -17906,7 +13916,7 @@
       <c r="F315" t="s">
         <v>2854</v>
       </c>
-      <c r="G315" s="4">
+      <c r="G315" s="3">
         <v>300248147</v>
       </c>
       <c r="H315" t="s">
@@ -17914,7 +13924,7 @@
       </c>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B316" s="18" t="s">
+      <c r="B316" s="15" t="s">
         <v>1840</v>
       </c>
       <c r="C316">
@@ -17923,7 +13933,7 @@
       <c r="F316" t="s">
         <v>2854</v>
       </c>
-      <c r="G316" s="4">
+      <c r="G316" s="3">
         <v>300248147</v>
       </c>
       <c r="H316" t="s">
@@ -18459,7 +14469,7 @@
       </c>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B383" s="18" t="s">
+      <c r="B383" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C383">
@@ -18468,7 +14478,7 @@
       <c r="F383" t="s">
         <v>2854</v>
       </c>
-      <c r="G383" s="4">
+      <c r="G383" s="3">
         <v>300069283</v>
       </c>
       <c r="H383" t="s">
@@ -18476,7 +14486,7 @@
       </c>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B384" s="18" t="s">
+      <c r="B384" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C384">
@@ -18492,7 +14502,7 @@
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B386" s="18" t="s">
+      <c r="B386" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C386">
@@ -18501,7 +14511,7 @@
       <c r="F386" t="s">
         <v>2854</v>
       </c>
-      <c r="G386" s="4">
+      <c r="G386" s="3">
         <v>300069290</v>
       </c>
       <c r="H386" t="s">
@@ -18517,7 +14527,7 @@
       </c>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B388" s="18" t="s">
+      <c r="B388" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C388">
@@ -18526,7 +14536,7 @@
       <c r="F388" t="s">
         <v>2854</v>
       </c>
-      <c r="G388" s="4">
+      <c r="G388" s="3">
         <v>300069279</v>
       </c>
       <c r="H388" t="s">
@@ -18551,7 +14561,7 @@
       <c r="F390" t="s">
         <v>2854</v>
       </c>
-      <c r="G390" s="4">
+      <c r="G390" s="3">
         <v>300132472</v>
       </c>
       <c r="H390" t="s">
@@ -18568,7 +14578,7 @@
       <c r="F391" t="s">
         <v>2854</v>
       </c>
-      <c r="G391" s="4">
+      <c r="G391" s="3">
         <v>300438840</v>
       </c>
       <c r="H391" t="s">
@@ -18585,7 +14595,7 @@
       <c r="F392" t="s">
         <v>2854</v>
       </c>
-      <c r="G392" s="4">
+      <c r="G392" s="3">
         <v>300380125</v>
       </c>
       <c r="H392" t="s">
@@ -18601,7 +14611,7 @@
       </c>
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B394" s="18" t="s">
+      <c r="B394" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C394">
@@ -18610,7 +14620,7 @@
       <c r="F394" t="s">
         <v>2854</v>
       </c>
-      <c r="G394" s="4">
+      <c r="G394" s="3">
         <v>300069042</v>
       </c>
       <c r="H394" t="s">
@@ -18634,7 +14644,7 @@
       </c>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B397" s="18" t="s">
+      <c r="B397" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C397">
@@ -18643,7 +14653,7 @@
       <c r="F397" t="s">
         <v>2854</v>
       </c>
-      <c r="G397" s="4">
+      <c r="G397" s="3">
         <v>300069281</v>
       </c>
       <c r="H397" t="s">
@@ -18668,7 +14678,7 @@
       <c r="F399" t="s">
         <v>2854</v>
       </c>
-      <c r="G399" s="4">
+      <c r="G399" s="3">
         <v>300007227</v>
       </c>
       <c r="H399" t="s">
@@ -18676,7 +14686,7 @@
       </c>
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B400" s="18" t="s">
+      <c r="B400" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C400">
@@ -18685,7 +14695,7 @@
       <c r="F400" t="s">
         <v>2854</v>
       </c>
-      <c r="G400" s="4">
+      <c r="G400" s="3">
         <v>300222725</v>
       </c>
       <c r="H400" t="s">
@@ -18734,7 +14744,7 @@
       <c r="F405" t="s">
         <v>2854</v>
       </c>
-      <c r="G405" s="4">
+      <c r="G405" s="3">
         <v>300222782</v>
       </c>
       <c r="H405" t="s">
@@ -18759,7 +14769,7 @@
       <c r="F407" t="s">
         <v>2854</v>
       </c>
-      <c r="G407" s="4">
+      <c r="G407" s="3">
         <v>300222793</v>
       </c>
       <c r="H407" t="s">
@@ -18806,7 +14816,7 @@
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>3107</v>
+        <v>3088</v>
       </c>
       <c r="C412">
         <v>35</v>
@@ -18822,7 +14832,7 @@
       <c r="F413" t="s">
         <v>2854</v>
       </c>
-      <c r="G413" s="4">
+      <c r="G413" s="3">
         <v>300239495</v>
       </c>
       <c r="H413" t="s">
@@ -18871,7 +14881,7 @@
       <c r="F418" t="s">
         <v>2854</v>
       </c>
-      <c r="G418" s="4">
+      <c r="G418" s="3">
         <v>300374825</v>
       </c>
       <c r="H418" t="s">
@@ -18928,7 +14938,7 @@
       <c r="F424" t="s">
         <v>2854</v>
       </c>
-      <c r="G424" s="4">
+      <c r="G424" s="3">
         <v>300438833</v>
       </c>
       <c r="H424" t="s">
@@ -18945,7 +14955,7 @@
       <c r="F425" t="s">
         <v>2854</v>
       </c>
-      <c r="G425" s="4">
+      <c r="G425" s="3">
         <v>300211461</v>
       </c>
       <c r="H425" t="s">
@@ -19034,7 +15044,7 @@
       <c r="F435" t="s">
         <v>2854</v>
       </c>
-      <c r="G435" s="4">
+      <c r="G435" s="3">
         <v>300054144</v>
       </c>
       <c r="H435" t="s">
@@ -19099,7 +15109,7 @@
       <c r="F442" t="s">
         <v>2859</v>
       </c>
-      <c r="G442" s="4" t="s">
+      <c r="G442" s="3" t="s">
         <v>2870</v>
       </c>
       <c r="H442" t="s">
@@ -19155,7 +15165,7 @@
       </c>
     </row>
     <row r="449" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B449" s="18" t="s">
+      <c r="B449" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C449">
@@ -19164,7 +15174,7 @@
       <c r="F449" t="s">
         <v>2854</v>
       </c>
-      <c r="G449" s="4">
+      <c r="G449" s="3">
         <v>300054146</v>
       </c>
       <c r="H449" t="s">
@@ -19208,7 +15218,7 @@
       <c r="F453" t="s">
         <v>2854</v>
       </c>
-      <c r="G453" s="4">
+      <c r="G453" s="3">
         <v>300264372</v>
       </c>
       <c r="H453" t="s">
@@ -19225,7 +15235,7 @@
       <c r="F454" t="s">
         <v>2854</v>
       </c>
-      <c r="G454" s="4">
+      <c r="G454" s="3">
         <v>300042909</v>
       </c>
       <c r="H454" t="s">
@@ -19233,7 +15243,7 @@
       </c>
     </row>
     <row r="455" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B455" s="18" t="s">
+      <c r="B455" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C455">
@@ -19242,7 +15252,7 @@
       <c r="F455" t="s">
         <v>2854</v>
       </c>
-      <c r="G455" s="4">
+      <c r="G455" s="3">
         <v>300069614</v>
       </c>
       <c r="H455" t="s">
@@ -19259,7 +15269,7 @@
       <c r="F456" t="s">
         <v>2854</v>
       </c>
-      <c r="G456" s="4">
+      <c r="G456" s="3">
         <v>300247614</v>
       </c>
       <c r="H456" t="s">
@@ -19276,7 +15286,7 @@
       <c r="F457" t="s">
         <v>2854</v>
       </c>
-      <c r="G457" s="4">
+      <c r="G457" s="3">
         <v>300152441</v>
       </c>
       <c r="H457" t="s">
@@ -19316,7 +15326,7 @@
       </c>
     </row>
     <row r="462" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B462" s="18" t="s">
+      <c r="B462" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C462">
@@ -19325,7 +15335,7 @@
       <c r="F462" t="s">
         <v>2854</v>
       </c>
-      <c r="G462" s="4">
+      <c r="G462" s="3">
         <v>300132466</v>
       </c>
       <c r="H462" t="s">
@@ -19333,7 +15343,7 @@
       </c>
     </row>
     <row r="463" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B463" s="18" t="s">
+      <c r="B463" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C463">
@@ -19342,7 +15352,7 @@
       <c r="F463" t="s">
         <v>2854</v>
       </c>
-      <c r="G463" s="4">
+      <c r="G463" s="3">
         <v>300193790</v>
       </c>
       <c r="H463" t="s">
@@ -19350,7 +15360,7 @@
       </c>
     </row>
     <row r="464" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B464" s="18" t="s">
+      <c r="B464" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C464">
@@ -19366,7 +15376,7 @@
       </c>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B466" s="18" t="s">
+      <c r="B466" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C466">
@@ -19375,7 +15385,7 @@
       <c r="F466" t="s">
         <v>2854</v>
       </c>
-      <c r="G466" s="4">
+      <c r="G466" s="3">
         <v>300008168</v>
       </c>
       <c r="H466" t="s">
@@ -19383,7 +15393,7 @@
       </c>
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B467" s="18" t="s">
+      <c r="B467" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C467">
@@ -19399,7 +15409,7 @@
       </c>
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B469" s="18" t="s">
+      <c r="B469" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C469">
@@ -19416,7 +15426,7 @@
       <c r="F470" t="s">
         <v>2854</v>
       </c>
-      <c r="G470" s="4">
+      <c r="G470" s="3">
         <v>300008187</v>
       </c>
       <c r="H470" t="s">
@@ -19424,7 +15434,7 @@
       </c>
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B471" s="18" t="s">
+      <c r="B471" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C471">
@@ -19433,7 +15443,7 @@
       <c r="F471" t="s">
         <v>2854</v>
       </c>
-      <c r="G471" s="4">
+      <c r="G471" s="3">
         <v>300312333</v>
       </c>
       <c r="H471" t="s">
@@ -19449,7 +15459,7 @@
       </c>
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B473" s="18" t="s">
+      <c r="B473" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C473">
@@ -19466,7 +15476,7 @@
       <c r="F474" t="s">
         <v>2854</v>
       </c>
-      <c r="G474" s="4">
+      <c r="G474" s="3">
         <v>300000510</v>
       </c>
       <c r="H474" t="s">
@@ -19483,7 +15493,7 @@
       <c r="F475" t="s">
         <v>2854</v>
       </c>
-      <c r="G475" s="4">
+      <c r="G475" s="3">
         <v>300007376</v>
       </c>
       <c r="H475" t="s">
@@ -19500,7 +15510,7 @@
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
-        <v>3110</v>
+        <v>3091</v>
       </c>
       <c r="C477">
         <v>35</v>
@@ -19515,7 +15525,7 @@
       </c>
     </row>
     <row r="479" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B479" s="18" t="s">
+      <c r="B479" s="15" t="s">
         <v>1026</v>
       </c>
       <c r="C479">
@@ -19524,7 +15534,7 @@
       <c r="F479" t="s">
         <v>2854</v>
       </c>
-      <c r="G479" s="4">
+      <c r="G479" s="3">
         <v>300007135</v>
       </c>
       <c r="H479" t="s">
@@ -19556,7 +15566,7 @@
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B483" s="18" t="s">
+      <c r="B483" s="15" t="s">
         <v>2436</v>
       </c>
       <c r="C483">
@@ -19565,7 +15575,7 @@
       <c r="F483" t="s">
         <v>2854</v>
       </c>
-      <c r="G483" s="4">
+      <c r="G483" s="3">
         <v>300005166</v>
       </c>
       <c r="H483" t="s">
@@ -19620,22 +15630,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="11">
+    <row r="490" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="9">
         <v>12</v>
       </c>
-      <c r="B490" s="12" t="s">
+      <c r="B490" s="10" t="s">
         <v>3077</v>
       </c>
-      <c r="C490" s="12"/>
-      <c r="D490" s="12"/>
-      <c r="E490" s="12"/>
-      <c r="F490" s="12"/>
-      <c r="G490" s="13"/>
-      <c r="H490" s="14"/>
+      <c r="C490" s="10"/>
+      <c r="D490" s="10"/>
+      <c r="E490" s="10"/>
+      <c r="F490" s="10"/>
+      <c r="G490" s="11"/>
+      <c r="H490" s="12"/>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B491" s="18" t="s">
+      <c r="B491" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C491">
@@ -19644,7 +15654,7 @@
       <c r="F491" t="s">
         <v>2854</v>
       </c>
-      <c r="G491" s="4">
+      <c r="G491" s="3">
         <v>300055811</v>
       </c>
       <c r="H491" t="s">
@@ -19685,7 +15695,7 @@
       <c r="F495" t="s">
         <v>2854</v>
       </c>
-      <c r="G495" s="4">
+      <c r="G495" s="3">
         <v>300264024</v>
       </c>
       <c r="H495" t="s">
@@ -19701,7 +15711,7 @@
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B497" s="18" t="s">
+      <c r="B497" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C497">
@@ -19718,7 +15728,7 @@
       <c r="F498" t="s">
         <v>2854</v>
       </c>
-      <c r="G498" s="4">
+      <c r="G498" s="3">
         <v>300212393</v>
       </c>
       <c r="H498" t="s">
@@ -19743,7 +15753,7 @@
       <c r="F500" t="s">
         <v>2854</v>
       </c>
-      <c r="G500" s="4">
+      <c r="G500" s="3">
         <v>300209286</v>
       </c>
       <c r="H500" t="s">
@@ -19768,7 +15778,7 @@
       <c r="F502" t="s">
         <v>2854</v>
       </c>
-      <c r="G502" s="4">
+      <c r="G502" s="3">
         <v>300053634</v>
       </c>
       <c r="H502" t="s">
@@ -19783,22 +15793,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="11">
+    <row r="504" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="9">
         <v>13</v>
       </c>
-      <c r="B504" s="12" t="s">
+      <c r="B504" s="10" t="s">
         <v>3078</v>
       </c>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
-      <c r="F504" s="12"/>
-      <c r="G504" s="13"/>
-      <c r="H504" s="14"/>
+      <c r="C504" s="10"/>
+      <c r="D504" s="10"/>
+      <c r="E504" s="10"/>
+      <c r="F504" s="10"/>
+      <c r="G504" s="11"/>
+      <c r="H504" s="12"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B505" s="18" t="s">
+      <c r="B505" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C505">
@@ -19807,7 +15817,7 @@
       <c r="F505" t="s">
         <v>2854</v>
       </c>
-      <c r="G505" s="4">
+      <c r="G505" s="3">
         <v>300055244</v>
       </c>
       <c r="H505" t="s">
@@ -19832,7 +15842,7 @@
       <c r="F507" t="s">
         <v>2854</v>
       </c>
-      <c r="G507" s="4">
+      <c r="G507" s="3">
         <v>300008678</v>
       </c>
       <c r="H507" t="s">
@@ -19873,7 +15883,7 @@
       <c r="F511" t="s">
         <v>2854</v>
       </c>
-      <c r="G511" s="4">
+      <c r="G511" s="3">
         <v>300000681</v>
       </c>
       <c r="H511" t="s">
@@ -19893,7 +15903,7 @@
       <c r="F512" t="s">
         <v>2854</v>
       </c>
-      <c r="G512" s="4">
+      <c r="G512" s="3">
         <v>300212738</v>
       </c>
       <c r="H512" t="s">
@@ -19910,7 +15920,7 @@
       <c r="F513" t="s">
         <v>2854</v>
       </c>
-      <c r="G513" s="4">
+      <c r="G513" s="3">
         <v>300007746</v>
       </c>
       <c r="H513" t="s">
@@ -19933,7 +15943,7 @@
         <v>14</v>
       </c>
       <c r="E515" t="s">
-        <v>3116</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="516" spans="2:8" x14ac:dyDescent="0.3">
@@ -20264,22 +16274,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A557" s="11">
+    <row r="557" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="9">
         <v>14</v>
       </c>
-      <c r="B557" s="12" t="s">
+      <c r="B557" s="10" t="s">
         <v>3079</v>
       </c>
-      <c r="C557" s="12"/>
-      <c r="D557" s="12"/>
-      <c r="E557" s="12"/>
-      <c r="F557" s="12"/>
-      <c r="G557" s="13"/>
-      <c r="H557" s="14"/>
+      <c r="C557" s="10"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="10"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="11"/>
+      <c r="H557" s="12"/>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B558" s="18" t="s">
+      <c r="B558" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C558">
@@ -20288,7 +16298,7 @@
       <c r="F558" t="s">
         <v>2854</v>
       </c>
-      <c r="G558" s="4">
+      <c r="G558" s="3">
         <v>300136900</v>
       </c>
       <c r="H558" t="s">
@@ -20313,7 +16323,7 @@
       <c r="F560" t="s">
         <v>2854</v>
       </c>
-      <c r="G560" s="4">
+      <c r="G560" s="3">
         <v>300410317</v>
       </c>
       <c r="H560" t="s">
@@ -20330,7 +16340,7 @@
       <c r="F561" t="s">
         <v>2854</v>
       </c>
-      <c r="G561" s="4">
+      <c r="G561" s="3">
         <v>300007135</v>
       </c>
       <c r="H561" t="s">
@@ -20347,7 +16357,7 @@
       <c r="F562" t="s">
         <v>2854</v>
       </c>
-      <c r="G562" s="4">
+      <c r="G562" s="3">
         <v>300249920</v>
       </c>
       <c r="H562" t="s">
@@ -20372,7 +16382,7 @@
       <c r="F564" t="s">
         <v>2854</v>
       </c>
-      <c r="G564" s="4">
+      <c r="G564" s="3">
         <v>300263432</v>
       </c>
       <c r="H564" t="s">
@@ -20412,7 +16422,7 @@
       </c>
     </row>
     <row r="569" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B569" s="18" t="s">
+      <c r="B569" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C569">
@@ -20421,7 +16431,7 @@
       <c r="F569" t="s">
         <v>2854</v>
       </c>
-      <c r="G569" s="4">
+      <c r="G569" s="3">
         <v>300054225</v>
       </c>
       <c r="H569" t="s">
@@ -20454,7 +16464,7 @@
       <c r="F571" t="s">
         <v>2854</v>
       </c>
-      <c r="G571" s="4">
+      <c r="G571" s="3">
         <v>300054138</v>
       </c>
       <c r="H571" t="s">
@@ -20471,7 +16481,7 @@
       <c r="D572"/>
       <c r="E572"/>
       <c r="F572"/>
-      <c r="G572" s="4"/>
+      <c r="G572" s="3"/>
       <c r="H572"/>
     </row>
     <row r="573" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20486,7 +16496,7 @@
       <c r="F573" t="s">
         <v>2854</v>
       </c>
-      <c r="G573" s="4"/>
+      <c r="G573" s="3"/>
       <c r="H573" t="s">
         <v>2909</v>
       </c>
@@ -20501,7 +16511,7 @@
       <c r="D574"/>
       <c r="E574"/>
       <c r="F574"/>
-      <c r="G574" s="4"/>
+      <c r="G574" s="3"/>
       <c r="H574"/>
     </row>
     <row r="575" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20514,7 +16524,7 @@
       <c r="D575"/>
       <c r="E575"/>
       <c r="F575"/>
-      <c r="G575" s="4"/>
+      <c r="G575" s="3"/>
       <c r="H575"/>
     </row>
     <row r="576" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20527,7 +16537,7 @@
       <c r="D576"/>
       <c r="E576"/>
       <c r="F576"/>
-      <c r="G576" s="4"/>
+      <c r="G576" s="3"/>
       <c r="H576"/>
     </row>
     <row r="577" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20540,7 +16550,7 @@
       <c r="D577"/>
       <c r="E577"/>
       <c r="F577"/>
-      <c r="G577" s="4"/>
+      <c r="G577" s="3"/>
       <c r="H577"/>
     </row>
     <row r="578" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20553,7 +16563,7 @@
       <c r="D578"/>
       <c r="E578"/>
       <c r="F578"/>
-      <c r="G578" s="4"/>
+      <c r="G578" s="3"/>
       <c r="H578"/>
     </row>
     <row r="579" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20566,7 +16576,7 @@
       <c r="D579"/>
       <c r="E579"/>
       <c r="F579"/>
-      <c r="G579" s="4"/>
+      <c r="G579" s="3"/>
       <c r="H579"/>
     </row>
     <row r="580" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20579,22 +16589,22 @@
       <c r="D580"/>
       <c r="E580"/>
       <c r="F580"/>
-      <c r="G580" s="4"/>
+      <c r="G580" s="3"/>
       <c r="H580"/>
     </row>
-    <row r="581" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A581" s="11">
+    <row r="581" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="9">
         <v>15</v>
       </c>
-      <c r="B581" s="12" t="s">
+      <c r="B581" s="10" t="s">
         <v>3080</v>
       </c>
-      <c r="C581" s="12"/>
-      <c r="D581" s="12"/>
-      <c r="E581" s="12"/>
-      <c r="F581" s="12"/>
-      <c r="G581" s="13"/>
-      <c r="H581" s="14"/>
+      <c r="C581" s="10"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="10"/>
+      <c r="F581" s="10"/>
+      <c r="G581" s="11"/>
+      <c r="H581" s="12"/>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
@@ -20606,7 +16616,7 @@
       <c r="F582" t="s">
         <v>2854</v>
       </c>
-      <c r="G582" s="4">
+      <c r="G582" s="3">
         <v>300249989</v>
       </c>
       <c r="H582" t="s">
@@ -20642,7 +16652,7 @@
       <c r="F585" t="s">
         <v>2854</v>
       </c>
-      <c r="G585" s="4">
+      <c r="G585" s="3">
         <v>300026657</v>
       </c>
       <c r="H585" t="s">
@@ -20659,7 +16669,7 @@
       <c r="F586" t="s">
         <v>2854</v>
       </c>
-      <c r="G586" s="4">
+      <c r="G586" s="3">
         <v>300026656</v>
       </c>
       <c r="H586" t="s">
@@ -20676,7 +16686,7 @@
       <c r="F587" t="s">
         <v>2854</v>
       </c>
-      <c r="G587" s="4">
+      <c r="G587" s="3">
         <v>300055193</v>
       </c>
       <c r="H587" t="s">
@@ -20693,7 +16703,7 @@
       <c r="F588" t="s">
         <v>2854</v>
       </c>
-      <c r="G588" s="4">
+      <c r="G588" s="3">
         <v>300411969</v>
       </c>
       <c r="H588" t="s">
@@ -20710,11 +16720,11 @@
       <c r="D589"/>
       <c r="E589"/>
       <c r="F589"/>
-      <c r="G589" s="4"/>
+      <c r="G589" s="3"/>
       <c r="H589"/>
     </row>
     <row r="590" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B590" s="18" t="s">
+      <c r="B590" s="15" t="s">
         <v>1152</v>
       </c>
       <c r="C590">
@@ -20723,7 +16733,7 @@
       <c r="D590"/>
       <c r="E590"/>
       <c r="F590"/>
-      <c r="G590" s="4"/>
+      <c r="G590" s="3"/>
       <c r="H590"/>
     </row>
     <row r="591" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20736,7 +16746,7 @@
       <c r="D591"/>
       <c r="E591"/>
       <c r="F591"/>
-      <c r="G591" s="4"/>
+      <c r="G591" s="3"/>
       <c r="H591"/>
     </row>
     <row r="592" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -20751,7 +16761,7 @@
       <c r="F592" t="s">
         <v>2854</v>
       </c>
-      <c r="G592" s="4">
+      <c r="G592" s="3">
         <v>300417787</v>
       </c>
       <c r="H592" t="s">
@@ -20759,7 +16769,7 @@
       </c>
     </row>
     <row r="593" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B593" s="18" t="s">
+      <c r="B593" s="15" t="s">
         <v>163</v>
       </c>
       <c r="C593">
@@ -20770,7 +16780,7 @@
       <c r="F593" t="s">
         <v>2854</v>
       </c>
-      <c r="G593" s="4">
+      <c r="G593" s="3">
         <v>300185684</v>
       </c>
       <c r="H593" t="s">
@@ -20789,7 +16799,7 @@
       <c r="F594" t="s">
         <v>2873</v>
       </c>
-      <c r="G594" s="4">
+      <c r="G594" s="3">
         <v>300254790</v>
       </c>
       <c r="H594" t="s">
@@ -20808,7 +16818,7 @@
       <c r="F595" t="s">
         <v>2854</v>
       </c>
-      <c r="G595" s="4">
+      <c r="G595" s="3">
         <v>300015635</v>
       </c>
       <c r="H595" t="s">
@@ -20825,7 +16835,7 @@
       <c r="D596"/>
       <c r="E596"/>
       <c r="F596"/>
-      <c r="G596" s="4"/>
+      <c r="G596" s="3"/>
       <c r="H596"/>
     </row>
     <row r="597" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20838,7 +16848,7 @@
       <c r="D597"/>
       <c r="E597"/>
       <c r="F597"/>
-      <c r="G597" s="4"/>
+      <c r="G597" s="3"/>
       <c r="H597"/>
     </row>
     <row r="598" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20851,7 +16861,7 @@
       <c r="D598"/>
       <c r="E598"/>
       <c r="F598"/>
-      <c r="G598" s="4"/>
+      <c r="G598" s="3"/>
       <c r="H598"/>
     </row>
     <row r="599" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20864,7 +16874,7 @@
       <c r="D599"/>
       <c r="E599"/>
       <c r="F599"/>
-      <c r="G599" s="4"/>
+      <c r="G599" s="3"/>
       <c r="H599"/>
     </row>
     <row r="600" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -20877,12 +16887,12 @@
       <c r="D600"/>
       <c r="E600"/>
       <c r="F600"/>
-      <c r="G600" s="4"/>
+      <c r="G600" s="3"/>
       <c r="H600"/>
     </row>
     <row r="601" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B601" t="s">
-        <v>3111</v>
+        <v>3092</v>
       </c>
       <c r="C601">
         <v>3</v>
@@ -20890,11 +16900,11 @@
       <c r="D601"/>
       <c r="E601"/>
       <c r="F601"/>
-      <c r="G601" s="4"/>
+      <c r="G601" s="3"/>
       <c r="H601"/>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B602" s="18" t="s">
+      <c r="B602" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C602">
@@ -20903,7 +16913,7 @@
       <c r="F602" t="s">
         <v>2854</v>
       </c>
-      <c r="G602" s="4">
+      <c r="G602" s="3">
         <v>300193993</v>
       </c>
       <c r="H602" t="s">
@@ -20920,26 +16930,26 @@
       <c r="F603" t="s">
         <v>2854</v>
       </c>
-      <c r="G603" s="4">
+      <c r="G603" s="3">
         <v>300255244</v>
       </c>
       <c r="H603" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="604" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A604" s="11">
+    <row r="604" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="9">
         <v>16</v>
       </c>
-      <c r="B604" s="12" t="s">
+      <c r="B604" s="10" t="s">
         <v>2358</v>
       </c>
-      <c r="C604" s="12"/>
-      <c r="D604" s="12"/>
-      <c r="E604" s="12"/>
-      <c r="F604" s="12"/>
-      <c r="G604" s="13"/>
-      <c r="H604" s="14"/>
+      <c r="C604" s="10"/>
+      <c r="D604" s="10"/>
+      <c r="E604" s="10"/>
+      <c r="F604" s="10"/>
+      <c r="G604" s="11"/>
+      <c r="H604" s="12"/>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
@@ -20950,7 +16960,7 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B606" s="16" t="s">
+      <c r="B606" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C606">
@@ -20959,7 +16969,7 @@
       <c r="F606" t="s">
         <v>2854</v>
       </c>
-      <c r="G606" s="4">
+      <c r="G606" s="3">
         <v>300025732</v>
       </c>
       <c r="H606" t="s">
@@ -20967,7 +16977,7 @@
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B607" s="16" t="s">
+      <c r="B607" s="14" t="s">
         <v>146</v>
       </c>
       <c r="C607">
@@ -20976,7 +16986,7 @@
       <c r="F607" t="s">
         <v>2854</v>
       </c>
-      <c r="G607" s="4">
+      <c r="G607" s="3">
         <v>300236851</v>
       </c>
       <c r="H607" t="s">
@@ -20984,7 +16994,7 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B608" s="16" t="s">
+      <c r="B608" s="14" t="s">
         <v>467</v>
       </c>
       <c r="C608">
@@ -20992,7 +17002,7 @@
       </c>
     </row>
     <row r="609" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B609" s="16" t="s">
+      <c r="B609" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C609">
@@ -21000,7 +17010,7 @@
       </c>
     </row>
     <row r="610" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B610" s="16" t="s">
+      <c r="B610" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C610">
@@ -21008,7 +17018,7 @@
       </c>
     </row>
     <row r="611" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B611" s="16" t="s">
+      <c r="B611" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C611">
@@ -21016,7 +17026,7 @@
       </c>
     </row>
     <row r="612" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B612" s="16" t="s">
+      <c r="B612" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C612">
@@ -21024,7 +17034,7 @@
       </c>
     </row>
     <row r="613" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B613" s="16" t="s">
+      <c r="B613" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C613">
@@ -21033,7 +17043,7 @@
       <c r="F613" t="s">
         <v>2854</v>
       </c>
-      <c r="G613" s="4">
+      <c r="G613" s="3">
         <v>300025704</v>
       </c>
       <c r="H613" t="s">
@@ -21041,7 +17051,7 @@
       </c>
     </row>
     <row r="614" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B614" s="16" t="s">
+      <c r="B614" s="14" t="s">
         <v>538</v>
       </c>
       <c r="C614">
@@ -21049,7 +17059,7 @@
       </c>
     </row>
     <row r="615" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B615" s="16" t="s">
+      <c r="B615" s="14" t="s">
         <v>1512</v>
       </c>
       <c r="C615">
@@ -21058,7 +17068,7 @@
       <c r="F615" t="s">
         <v>2854</v>
       </c>
-      <c r="G615" s="4">
+      <c r="G615" s="3">
         <v>300041340</v>
       </c>
       <c r="H615" t="s">
@@ -21066,7 +17076,7 @@
       </c>
     </row>
     <row r="616" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B616" s="16" t="s">
+      <c r="B616" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C616">
@@ -21074,7 +17084,7 @@
       </c>
     </row>
     <row r="617" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B617" s="16" t="s">
+      <c r="B617" s="14" t="s">
         <v>591</v>
       </c>
       <c r="C617">
@@ -21083,7 +17093,7 @@
       <c r="F617" t="s">
         <v>2854</v>
       </c>
-      <c r="G617" s="4">
+      <c r="G617" s="3">
         <v>300025008</v>
       </c>
       <c r="H617" t="s">
@@ -21091,7 +17101,7 @@
       </c>
     </row>
     <row r="618" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B618" s="16" t="s">
+      <c r="B618" s="14" t="s">
         <v>585</v>
       </c>
       <c r="C618">
@@ -21099,7 +17109,7 @@
       </c>
     </row>
     <row r="619" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B619" s="16" t="s">
+      <c r="B619" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C619">
@@ -21107,7 +17117,7 @@
       </c>
     </row>
     <row r="620" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B620" s="16" t="s">
+      <c r="B620" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C620">
@@ -21115,7 +17125,7 @@
       </c>
     </row>
     <row r="621" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B621" s="16" t="s">
+      <c r="B621" s="14" t="s">
         <v>403</v>
       </c>
       <c r="C621">
@@ -21123,7 +17133,7 @@
       </c>
     </row>
     <row r="622" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B622" s="16" t="s">
+      <c r="B622" s="14" t="s">
         <v>147</v>
       </c>
       <c r="C622">
@@ -21131,7 +17141,7 @@
       </c>
     </row>
     <row r="623" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B623" s="16" t="s">
+      <c r="B623" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C623">
@@ -21139,7 +17149,7 @@
       </c>
     </row>
     <row r="624" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B624" s="16" t="s">
+      <c r="B624" s="14" t="s">
         <v>597</v>
       </c>
       <c r="C624">
@@ -21147,7 +17157,7 @@
       </c>
     </row>
     <row r="625" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B625" s="16" t="s">
+      <c r="B625" s="14" t="s">
         <v>596</v>
       </c>
       <c r="C625">
@@ -21155,7 +17165,7 @@
       </c>
     </row>
     <row r="626" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B626" s="16" t="s">
+      <c r="B626" s="14" t="s">
         <v>1639</v>
       </c>
       <c r="C626">
@@ -21163,7 +17173,7 @@
       </c>
     </row>
     <row r="627" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B627" s="16" t="s">
+      <c r="B627" s="14" t="s">
         <v>570</v>
       </c>
       <c r="C627">
@@ -21172,7 +17182,7 @@
       <c r="F627" t="s">
         <v>2854</v>
       </c>
-      <c r="G627" s="4">
+      <c r="G627" s="3">
         <v>300025314</v>
       </c>
       <c r="H627" t="s">
@@ -21180,7 +17190,7 @@
       </c>
     </row>
     <row r="628" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B628" s="16" t="s">
+      <c r="B628" s="14" t="s">
         <v>625</v>
       </c>
       <c r="C628">
@@ -21188,7 +17198,7 @@
       </c>
     </row>
     <row r="629" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B629" s="16" t="s">
+      <c r="B629" s="14" t="s">
         <v>303</v>
       </c>
       <c r="C629">
@@ -21196,7 +17206,7 @@
       </c>
     </row>
     <row r="630" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B630" s="16" t="s">
+      <c r="B630" s="14" t="s">
         <v>569</v>
       </c>
       <c r="C630">
@@ -21204,7 +17214,7 @@
       </c>
     </row>
     <row r="631" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B631" s="16" t="s">
+      <c r="B631" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C631">
@@ -21218,7 +17228,7 @@
       </c>
     </row>
     <row r="632" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B632" s="16" t="s">
+      <c r="B632" s="14" t="s">
         <v>383</v>
       </c>
       <c r="C632">
@@ -21226,7 +17236,7 @@
       </c>
     </row>
     <row r="633" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B633" s="16" t="s">
+      <c r="B633" s="14" t="s">
         <v>731</v>
       </c>
       <c r="C633">
@@ -21234,7 +17244,7 @@
       </c>
     </row>
     <row r="634" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B634" s="16" t="s">
+      <c r="B634" s="14" t="s">
         <v>417</v>
       </c>
       <c r="C634">
@@ -21242,7 +17252,7 @@
       </c>
     </row>
     <row r="635" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B635" s="16" t="s">
+      <c r="B635" s="14" t="s">
         <v>528</v>
       </c>
       <c r="C635">
@@ -21250,7 +17260,7 @@
       </c>
     </row>
     <row r="636" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B636" s="16" t="s">
+      <c r="B636" s="14" t="s">
         <v>579</v>
       </c>
       <c r="C636">
@@ -21258,7 +17268,7 @@
       </c>
     </row>
     <row r="637" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B637" s="16" t="s">
+      <c r="B637" s="14" t="s">
         <v>592</v>
       </c>
       <c r="C637">
@@ -21266,7 +17276,7 @@
       </c>
     </row>
     <row r="638" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B638" s="16" t="s">
+      <c r="B638" s="14" t="s">
         <v>588</v>
       </c>
       <c r="C638">
@@ -21274,7 +17284,7 @@
       </c>
     </row>
     <row r="639" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B639" s="16" t="s">
+      <c r="B639" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C639">
@@ -21282,7 +17292,7 @@
       </c>
     </row>
     <row r="640" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B640" s="16" t="s">
+      <c r="B640" s="14" t="s">
         <v>325</v>
       </c>
       <c r="C640">
@@ -21290,7 +17300,7 @@
       </c>
     </row>
     <row r="641" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B641" s="16" t="s">
+      <c r="B641" s="14" t="s">
         <v>879</v>
       </c>
       <c r="C641">
@@ -21298,7 +17308,7 @@
       </c>
     </row>
     <row r="642" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B642" s="16" t="s">
+      <c r="B642" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C642">
@@ -21306,7 +17316,7 @@
       </c>
     </row>
     <row r="643" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B643" s="16" t="s">
+      <c r="B643" s="14" t="s">
         <v>687</v>
       </c>
       <c r="C643">
@@ -21315,7 +17325,7 @@
       <c r="F643" t="s">
         <v>2854</v>
       </c>
-      <c r="G643" s="4">
+      <c r="G643" s="3">
         <v>300263264</v>
       </c>
       <c r="H643" t="s">
@@ -21323,7 +17333,7 @@
       </c>
     </row>
     <row r="644" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B644" s="16" t="s">
+      <c r="B644" s="14" t="s">
         <v>692</v>
       </c>
       <c r="C644">
@@ -21331,7 +17341,7 @@
       </c>
     </row>
     <row r="645" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B645" s="16" t="s">
+      <c r="B645" s="14" t="s">
         <v>749</v>
       </c>
       <c r="C645">
@@ -21339,7 +17349,7 @@
       </c>
     </row>
     <row r="646" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B646" s="16" t="s">
+      <c r="B646" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C646">
@@ -21347,7 +17357,7 @@
       </c>
     </row>
     <row r="647" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B647" s="16" t="s">
+      <c r="B647" s="14" t="s">
         <v>770</v>
       </c>
       <c r="C647">
@@ -21355,7 +17365,7 @@
       </c>
     </row>
     <row r="648" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B648" s="16" t="s">
+      <c r="B648" s="14" t="s">
         <v>832</v>
       </c>
       <c r="C648">
@@ -21363,7 +17373,7 @@
       </c>
     </row>
     <row r="649" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B649" s="16" t="s">
+      <c r="B649" s="14" t="s">
         <v>583</v>
       </c>
       <c r="C649">
@@ -21371,7 +17381,7 @@
       </c>
     </row>
     <row r="650" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B650" s="16" t="s">
+      <c r="B650" s="14" t="s">
         <v>602</v>
       </c>
       <c r="C650">
@@ -21379,7 +17389,7 @@
       </c>
     </row>
     <row r="651" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B651" s="16" t="s">
+      <c r="B651" s="14" t="s">
         <v>637</v>
       </c>
       <c r="C651">
@@ -21388,7 +17398,7 @@
       <c r="F651" t="s">
         <v>2854</v>
       </c>
-      <c r="G651" s="4">
+      <c r="G651" s="3">
         <v>300025293</v>
       </c>
       <c r="H651" t="s">
@@ -21396,7 +17406,7 @@
       </c>
     </row>
     <row r="652" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B652" s="16" t="s">
+      <c r="B652" s="14" t="s">
         <v>1127</v>
       </c>
       <c r="C652">
@@ -21404,7 +17414,7 @@
       </c>
     </row>
     <row r="653" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B653" s="16" t="s">
+      <c r="B653" s="14" t="s">
         <v>670</v>
       </c>
       <c r="C653">
@@ -21412,7 +17422,7 @@
       </c>
     </row>
     <row r="654" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B654" s="16" t="s">
+      <c r="B654" s="14" t="s">
         <v>797</v>
       </c>
       <c r="C654">
@@ -21420,7 +17430,7 @@
       </c>
     </row>
     <row r="655" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B655" s="16" t="s">
+      <c r="B655" s="14" t="s">
         <v>862</v>
       </c>
       <c r="C655">
@@ -21434,7 +17444,7 @@
       </c>
     </row>
     <row r="656" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B656" s="16" t="s">
+      <c r="B656" s="14" t="s">
         <v>1500</v>
       </c>
       <c r="C656">
@@ -21442,7 +17452,7 @@
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B657" s="16" t="s">
+      <c r="B657" s="14" t="s">
         <v>533</v>
       </c>
       <c r="C657">
@@ -21450,7 +17460,7 @@
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B658" s="16" t="s">
+      <c r="B658" s="14" t="s">
         <v>1552</v>
       </c>
       <c r="C658">
@@ -21458,7 +17468,7 @@
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B659" s="16" t="s">
+      <c r="B659" s="14" t="s">
         <v>595</v>
       </c>
       <c r="C659">
@@ -21472,7 +17482,7 @@
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B660" s="16" t="s">
+      <c r="B660" s="14" t="s">
         <v>598</v>
       </c>
       <c r="C660">
@@ -21480,7 +17490,7 @@
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B661" s="16" t="s">
+      <c r="B661" s="14" t="s">
         <v>759</v>
       </c>
       <c r="C661">
@@ -21488,7 +17498,7 @@
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B662" s="16" t="s">
+      <c r="B662" s="14" t="s">
         <v>875</v>
       </c>
       <c r="C662">
@@ -21496,7 +17506,7 @@
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B663" s="16" t="s">
+      <c r="B663" s="14" t="s">
         <v>1543</v>
       </c>
       <c r="C663">
@@ -21510,7 +17520,7 @@
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B664" s="16" t="s">
+      <c r="B664" s="14" t="s">
         <v>1553</v>
       </c>
       <c r="C664">
@@ -21518,7 +17528,7 @@
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B665" s="16" t="s">
+      <c r="B665" s="14" t="s">
         <v>760</v>
       </c>
       <c r="C665">
@@ -21526,7 +17536,7 @@
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B666" s="16" t="s">
+      <c r="B666" s="14" t="s">
         <v>773</v>
       </c>
       <c r="C666">
@@ -21535,7 +17545,7 @@
       <c r="F666" t="s">
         <v>2854</v>
       </c>
-      <c r="G666" s="4">
+      <c r="G666" s="3">
         <v>300263286</v>
       </c>
       <c r="H666" t="s">
@@ -21543,7 +17553,7 @@
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B667" s="16" t="s">
+      <c r="B667" s="14" t="s">
         <v>1249</v>
       </c>
       <c r="C667">
@@ -21551,7 +17561,7 @@
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B668" s="16" t="s">
+      <c r="B668" s="14" t="s">
         <v>1251</v>
       </c>
       <c r="C668">
@@ -21559,7 +17569,7 @@
       </c>
     </row>
     <row r="669" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B669" s="18" t="s">
+      <c r="B669" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C669">
@@ -21570,7 +17580,7 @@
       <c r="F669" t="s">
         <v>2854</v>
       </c>
-      <c r="G669" s="4">
+      <c r="G669" s="3">
         <v>300263340</v>
       </c>
       <c r="H669" t="s">
@@ -21578,7 +17588,7 @@
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B670" s="16" t="s">
+      <c r="B670" s="14" t="s">
         <v>1855</v>
       </c>
       <c r="C670">
@@ -21586,7 +17596,7 @@
       </c>
     </row>
     <row r="671" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B671" s="18" t="s">
+      <c r="B671" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C671">
@@ -21597,26 +17607,26 @@
       <c r="F671" t="s">
         <v>2854</v>
       </c>
-      <c r="G671" s="4">
+      <c r="G671" s="3">
         <v>300054704</v>
       </c>
       <c r="H671" t="s">
         <v>3035</v>
       </c>
     </row>
-    <row r="672" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A672" s="11">
+    <row r="672" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="9">
         <v>17</v>
       </c>
-      <c r="B672" s="12" t="s">
+      <c r="B672" s="10" t="s">
         <v>2334</v>
       </c>
-      <c r="C672" s="12"/>
-      <c r="D672" s="12"/>
-      <c r="E672" s="12"/>
-      <c r="F672" s="12"/>
-      <c r="G672" s="13"/>
-      <c r="H672" s="14"/>
+      <c r="C672" s="10"/>
+      <c r="D672" s="10"/>
+      <c r="E672" s="10"/>
+      <c r="F672" s="10"/>
+      <c r="G672" s="11"/>
+      <c r="H672" s="12"/>
     </row>
     <row r="673" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" t="s">
@@ -21631,7 +17641,7 @@
       <c r="F673" t="s">
         <v>2854</v>
       </c>
-      <c r="G673" s="4">
+      <c r="G673" s="3">
         <v>300061886</v>
       </c>
       <c r="H673" t="s">
@@ -21639,7 +17649,7 @@
       </c>
     </row>
     <row r="674" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B674" s="18" t="s">
+      <c r="B674" s="15" t="s">
         <v>2339</v>
       </c>
       <c r="C674">
@@ -21648,7 +17658,7 @@
       <c r="F674" t="s">
         <v>2854</v>
       </c>
-      <c r="G674" s="4">
+      <c r="G674" s="3">
         <v>300005283</v>
       </c>
       <c r="H674" t="s">
@@ -21656,7 +17666,7 @@
       </c>
     </row>
     <row r="675" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B675" s="15" t="s">
+      <c r="B675" s="13" t="s">
         <v>2340</v>
       </c>
       <c r="C675">
@@ -21665,7 +17675,7 @@
       <c r="F675" t="s">
         <v>2854</v>
       </c>
-      <c r="G675" s="4">
+      <c r="G675" s="3">
         <v>300005246</v>
       </c>
       <c r="H675" t="s">
@@ -21673,7 +17683,7 @@
       </c>
     </row>
     <row r="676" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B676" s="16" t="s">
+      <c r="B676" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C676">
@@ -21682,7 +17692,7 @@
       <c r="F676" t="s">
         <v>2854</v>
       </c>
-      <c r="G676" s="4">
+      <c r="G676" s="3">
         <v>300136385</v>
       </c>
       <c r="H676" t="s">
@@ -21690,7 +17700,7 @@
       </c>
     </row>
     <row r="677" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B677" s="16" t="s">
+      <c r="B677" s="14" t="s">
         <v>406</v>
       </c>
       <c r="C677">
@@ -21698,7 +17708,7 @@
       </c>
     </row>
     <row r="678" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B678" s="16" t="s">
+      <c r="B678" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C678">
@@ -21706,7 +17716,7 @@
       </c>
     </row>
     <row r="679" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B679" s="16" t="s">
+      <c r="B679" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C679">
@@ -21714,7 +17724,7 @@
       </c>
     </row>
     <row r="680" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B680" s="16" t="s">
+      <c r="B680" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C680">
@@ -21722,7 +17732,7 @@
       </c>
     </row>
     <row r="681" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B681" s="16" t="s">
+      <c r="B681" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C681">
@@ -21731,7 +17741,7 @@
       <c r="F681" t="s">
         <v>2854</v>
       </c>
-      <c r="G681" s="4">
+      <c r="G681" s="3">
         <v>300379119</v>
       </c>
       <c r="H681" t="s">
@@ -21739,7 +17749,7 @@
       </c>
     </row>
     <row r="682" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B682" s="16" t="s">
+      <c r="B682" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C682">
@@ -21753,7 +17763,7 @@
       </c>
     </row>
     <row r="683" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B683" s="16" t="s">
+      <c r="B683" s="14" t="s">
         <v>437</v>
       </c>
       <c r="C683">
@@ -21761,7 +17771,7 @@
       </c>
     </row>
     <row r="684" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B684" s="16" t="s">
+      <c r="B684" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C684">
@@ -21769,7 +17779,7 @@
       </c>
     </row>
     <row r="685" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B685" s="16" t="s">
+      <c r="B685" s="14" t="s">
         <v>719</v>
       </c>
       <c r="C685">
@@ -21777,7 +17787,7 @@
       </c>
     </row>
     <row r="686" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B686" s="16" t="s">
+      <c r="B686" s="14" t="s">
         <v>617</v>
       </c>
       <c r="C686">
@@ -21785,7 +17795,7 @@
       </c>
     </row>
     <row r="687" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B687" s="16" t="s">
+      <c r="B687" s="14" t="s">
         <v>541</v>
       </c>
       <c r="C687">
@@ -21793,7 +17803,7 @@
       </c>
     </row>
     <row r="688" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B688" s="16" t="s">
+      <c r="B688" s="14" t="s">
         <v>562</v>
       </c>
       <c r="C688">
@@ -21802,7 +17812,7 @@
       <c r="F688" t="s">
         <v>2854</v>
       </c>
-      <c r="G688" s="4">
+      <c r="G688" s="3">
         <v>300005297</v>
       </c>
       <c r="H688" t="s">
@@ -21810,7 +17820,7 @@
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B689" s="16" t="s">
+      <c r="B689" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C689">
@@ -21818,7 +17828,7 @@
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B690" s="16" t="s">
+      <c r="B690" s="14" t="s">
         <v>488</v>
       </c>
       <c r="C690">
@@ -21826,7 +17836,7 @@
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B691" s="16" t="s">
+      <c r="B691" s="14" t="s">
         <v>327</v>
       </c>
       <c r="C691">
@@ -21834,7 +17844,7 @@
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B692" s="16" t="s">
+      <c r="B692" s="14" t="s">
         <v>572</v>
       </c>
       <c r="C692">
@@ -21842,7 +17852,7 @@
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B693" s="16" t="s">
+      <c r="B693" s="14" t="s">
         <v>560</v>
       </c>
       <c r="C693">
@@ -21850,7 +17860,7 @@
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B694" s="16" t="s">
+      <c r="B694" s="14" t="s">
         <v>772</v>
       </c>
       <c r="C694">
@@ -21858,7 +17868,7 @@
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B695" s="16" t="s">
+      <c r="B695" s="14" t="s">
         <v>566</v>
       </c>
       <c r="C695">
@@ -21866,7 +17876,7 @@
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B696" s="16" t="s">
+      <c r="B696" s="14" t="s">
         <v>1322</v>
       </c>
       <c r="C696">
@@ -21874,30 +17884,30 @@
       </c>
     </row>
     <row r="697" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B697" s="16" t="s">
+      <c r="B697" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C697">
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A698" s="11" t="s">
+    <row r="698" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="B698" s="12" t="s">
+      <c r="B698" s="10" t="s">
         <v>3081</v>
       </c>
-      <c r="C698" s="12"/>
-      <c r="D698" s="12"/>
-      <c r="E698" s="12"/>
-      <c r="F698" s="12"/>
-      <c r="G698" s="13"/>
-      <c r="H698" s="14"/>
+      <c r="C698" s="10"/>
+      <c r="D698" s="10"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="10"/>
+      <c r="G698" s="11"/>
+      <c r="H698" s="12"/>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B699" t="s">
-        <v>3112</v>
+        <v>3093</v>
       </c>
       <c r="C699">
         <v>52</v>
@@ -21908,7 +17918,7 @@
       <c r="F699" t="s">
         <v>2854</v>
       </c>
-      <c r="G699" s="4">
+      <c r="G699" s="3">
         <v>300055718</v>
       </c>
       <c r="H699" t="s">
@@ -21925,7 +17935,7 @@
       <c r="F700" t="s">
         <v>2854</v>
       </c>
-      <c r="G700" s="4">
+      <c r="G700" s="3">
         <v>300379421</v>
       </c>
       <c r="H700" t="s">
@@ -21933,7 +17943,7 @@
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B701" s="16" t="s">
+      <c r="B701" s="14" t="s">
         <v>430</v>
       </c>
       <c r="C701">
@@ -21941,7 +17951,7 @@
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B702" s="16" t="s">
+      <c r="B702" s="14" t="s">
         <v>334</v>
       </c>
       <c r="C702">
@@ -21950,7 +17960,7 @@
       <c r="F702" t="s">
         <v>2854</v>
       </c>
-      <c r="G702" s="4">
+      <c r="G702" s="3">
         <v>300033260</v>
       </c>
       <c r="H702" t="s">
@@ -21958,7 +17968,7 @@
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B703" s="16" t="s">
+      <c r="B703" s="14" t="s">
         <v>1285</v>
       </c>
       <c r="C703">
@@ -21966,7 +17976,7 @@
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B704" s="16" t="s">
+      <c r="B704" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C704">
@@ -21974,7 +17984,7 @@
       </c>
     </row>
     <row r="705" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B705" s="16" t="s">
+      <c r="B705" s="14" t="s">
         <v>863</v>
       </c>
       <c r="C705">
@@ -21982,7 +17992,7 @@
       </c>
     </row>
     <row r="706" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B706" s="16" t="s">
+      <c r="B706" s="14" t="s">
         <v>1522</v>
       </c>
       <c r="C706">
@@ -21990,7 +18000,7 @@
       </c>
     </row>
     <row r="707" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B707" s="16" t="s">
+      <c r="B707" s="14" t="s">
         <v>1284</v>
       </c>
       <c r="C707">
@@ -21999,7 +18009,7 @@
       <c r="F707" t="s">
         <v>2854</v>
       </c>
-      <c r="G707" s="4">
+      <c r="G707" s="3">
         <v>300010662</v>
       </c>
       <c r="H707" t="s">
@@ -22007,7 +18017,7 @@
       </c>
     </row>
     <row r="708" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B708" s="16" t="s">
+      <c r="B708" s="14" t="s">
         <v>811</v>
       </c>
       <c r="C708">
@@ -22015,7 +18025,7 @@
       </c>
     </row>
     <row r="709" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B709" s="16" t="s">
+      <c r="B709" s="14" t="s">
         <v>1286</v>
       </c>
       <c r="C709">
@@ -22024,7 +18034,7 @@
       <c r="F709" t="s">
         <v>2854</v>
       </c>
-      <c r="G709" s="4">
+      <c r="G709" s="3">
         <v>300221157</v>
       </c>
       <c r="H709" t="s">
@@ -22032,7 +18042,7 @@
       </c>
     </row>
     <row r="710" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B710" s="16" t="s">
+      <c r="B710" s="14" t="s">
         <v>1638</v>
       </c>
       <c r="C710">
@@ -22040,7 +18050,7 @@
       </c>
     </row>
     <row r="711" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B711" s="16" t="s">
+      <c r="B711" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C711">
@@ -22048,7 +18058,7 @@
       </c>
     </row>
     <row r="712" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B712" s="16" t="s">
+      <c r="B712" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C712">
@@ -22056,7 +18066,7 @@
       </c>
     </row>
     <row r="713" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B713" s="16" t="s">
+      <c r="B713" s="14" t="s">
         <v>1009</v>
       </c>
       <c r="C713">
@@ -22064,7 +18074,7 @@
       </c>
     </row>
     <row r="714" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B714" s="16" t="s">
+      <c r="B714" s="14" t="s">
         <v>502</v>
       </c>
       <c r="C714">
@@ -22072,7 +18082,7 @@
       </c>
     </row>
     <row r="715" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B715" s="16" t="s">
+      <c r="B715" s="14" t="s">
         <v>316</v>
       </c>
       <c r="C715">
@@ -22080,7 +18090,7 @@
       </c>
     </row>
     <row r="716" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B716" s="16" t="s">
+      <c r="B716" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C716">
@@ -22088,7 +18098,7 @@
       </c>
     </row>
     <row r="717" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B717" s="16" t="s">
+      <c r="B717" s="14" t="s">
         <v>1891</v>
       </c>
       <c r="C717">
@@ -22096,7 +18106,7 @@
       </c>
     </row>
     <row r="718" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B718" s="16" t="s">
+      <c r="B718" s="14" t="s">
         <v>575</v>
       </c>
       <c r="C718">
@@ -22104,7 +18114,7 @@
       </c>
     </row>
     <row r="719" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B719" s="16" t="s">
+      <c r="B719" s="14" t="s">
         <v>318</v>
       </c>
       <c r="C719">
@@ -22112,7 +18122,7 @@
       </c>
     </row>
     <row r="720" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B720" s="16" t="s">
+      <c r="B720" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C720">
@@ -22120,7 +18130,7 @@
       </c>
     </row>
     <row r="721" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B721" s="16" t="s">
+      <c r="B721" s="14" t="s">
         <v>769</v>
       </c>
       <c r="C721">
@@ -22128,7 +18138,7 @@
       </c>
     </row>
     <row r="722" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B722" s="16" t="s">
+      <c r="B722" s="14" t="s">
         <v>1887</v>
       </c>
       <c r="C722">
@@ -22136,7 +18146,7 @@
       </c>
     </row>
     <row r="723" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B723" s="16" t="s">
+      <c r="B723" s="14" t="s">
         <v>519</v>
       </c>
       <c r="C723">
@@ -22144,7 +18154,7 @@
       </c>
     </row>
     <row r="724" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B724" s="16" t="s">
+      <c r="B724" s="14" t="s">
         <v>571</v>
       </c>
       <c r="C724">
@@ -22152,7 +18162,7 @@
       </c>
     </row>
     <row r="725" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B725" s="16" t="s">
+      <c r="B725" s="14" t="s">
         <v>578</v>
       </c>
       <c r="C725">
@@ -22160,7 +18170,7 @@
       </c>
     </row>
     <row r="726" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B726" s="16" t="s">
+      <c r="B726" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C726">
@@ -22168,7 +18178,7 @@
       </c>
     </row>
     <row r="727" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B727" s="16" t="s">
+      <c r="B727" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C727">
@@ -22176,7 +18186,7 @@
       </c>
     </row>
     <row r="728" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B728" s="16" t="s">
+      <c r="B728" s="14" t="s">
         <v>608</v>
       </c>
       <c r="C728">
@@ -22184,7 +18194,7 @@
       </c>
     </row>
     <row r="729" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B729" s="16" t="s">
+      <c r="B729" s="14" t="s">
         <v>746</v>
       </c>
       <c r="C729">
@@ -22192,7 +18202,7 @@
       </c>
     </row>
     <row r="730" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B730" s="16" t="s">
+      <c r="B730" s="14" t="s">
         <v>1357</v>
       </c>
       <c r="C730">
@@ -22200,7 +18210,7 @@
       </c>
     </row>
     <row r="731" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B731" s="16" t="s">
+      <c r="B731" s="14" t="s">
         <v>1361</v>
       </c>
       <c r="C731">
@@ -22208,7 +18218,7 @@
       </c>
     </row>
     <row r="732" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B732" s="16" t="s">
+      <c r="B732" s="14" t="s">
         <v>1544</v>
       </c>
       <c r="C732">
@@ -22216,7 +18226,7 @@
       </c>
     </row>
     <row r="733" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B733" s="16" t="s">
+      <c r="B733" s="14" t="s">
         <v>520</v>
       </c>
       <c r="C733">
@@ -22224,7 +18234,7 @@
       </c>
     </row>
     <row r="734" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B734" s="16" t="s">
+      <c r="B734" s="14" t="s">
         <v>744</v>
       </c>
       <c r="C734">
@@ -22232,7 +18242,7 @@
       </c>
     </row>
     <row r="735" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B735" s="16" t="s">
+      <c r="B735" s="14" t="s">
         <v>1315</v>
       </c>
       <c r="C735">
@@ -22240,7 +18250,7 @@
       </c>
     </row>
     <row r="736" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B736" s="16" t="s">
+      <c r="B736" s="14" t="s">
         <v>1548</v>
       </c>
       <c r="C736">
@@ -22248,7 +18258,7 @@
       </c>
     </row>
     <row r="737" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B737" s="16" t="s">
+      <c r="B737" s="14" t="s">
         <v>799</v>
       </c>
       <c r="C737">
@@ -22256,7 +18266,7 @@
       </c>
     </row>
     <row r="738" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B738" s="16" t="s">
+      <c r="B738" s="14" t="s">
         <v>518</v>
       </c>
       <c r="C738">
@@ -22264,7 +18274,7 @@
       </c>
     </row>
     <row r="739" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B739" s="16" t="s">
+      <c r="B739" s="14" t="s">
         <v>515</v>
       </c>
       <c r="C739">
@@ -22272,7 +18282,7 @@
       </c>
     </row>
     <row r="740" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B740" s="16" t="s">
+      <c r="B740" s="14" t="s">
         <v>516</v>
       </c>
       <c r="C740">
@@ -22288,7 +18298,7 @@
       </c>
     </row>
     <row r="742" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B742" s="18" t="s">
+      <c r="B742" s="15" t="s">
         <v>194</v>
       </c>
       <c r="C742">
@@ -22297,7 +18307,7 @@
       <c r="F742" t="s">
         <v>2854</v>
       </c>
-      <c r="G742" s="4">
+      <c r="G742" s="3">
         <v>300054463</v>
       </c>
       <c r="H742" t="s">
@@ -22305,7 +18315,7 @@
       </c>
     </row>
     <row r="743" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B743" s="18" t="s">
+      <c r="B743" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C743">
@@ -22317,7 +18327,7 @@
       <c r="F743" t="s">
         <v>2854</v>
       </c>
-      <c r="G743" s="4">
+      <c r="G743" s="3">
         <v>300179372</v>
       </c>
       <c r="H743" t="s">
@@ -22334,7 +18344,7 @@
       <c r="F744" t="s">
         <v>2854</v>
       </c>
-      <c r="G744" s="4">
+      <c r="G744" s="3">
         <v>300404580</v>
       </c>
       <c r="H744" t="s">
@@ -22342,7 +18352,7 @@
       </c>
     </row>
     <row r="745" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B745" s="18" t="s">
+      <c r="B745" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C745">
@@ -22351,7 +18361,7 @@
       <c r="F745" t="s">
         <v>2873</v>
       </c>
-      <c r="G745" s="4">
+      <c r="G745" s="3">
         <v>300008631</v>
       </c>
       <c r="H745" t="s">
@@ -22368,7 +18378,7 @@
       <c r="F746" t="s">
         <v>2854</v>
       </c>
-      <c r="G746" s="4">
+      <c r="G746" s="3">
         <v>300000206</v>
       </c>
       <c r="H746" t="s">
@@ -22401,7 +18411,7 @@
       <c r="F749" t="s">
         <v>2854</v>
       </c>
-      <c r="G749" s="4">
+      <c r="G749" s="3">
         <v>300054512</v>
       </c>
       <c r="H749" t="s">
@@ -22418,7 +18428,7 @@
       <c r="F750" t="s">
         <v>2854</v>
       </c>
-      <c r="G750" s="4">
+      <c r="G750" s="3">
         <v>300008090</v>
       </c>
       <c r="H750" t="s">
@@ -22449,19 +18459,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="754" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A754" s="11" t="s">
+    <row r="754" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A754" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="B754" s="12" t="s">
+      <c r="B754" s="10" t="s">
         <v>2108</v>
       </c>
-      <c r="C754" s="12"/>
-      <c r="D754" s="12"/>
-      <c r="E754" s="12"/>
-      <c r="F754" s="12"/>
-      <c r="G754" s="13"/>
-      <c r="H754" s="14"/>
+      <c r="C754" s="10"/>
+      <c r="D754" s="10"/>
+      <c r="E754" s="10"/>
+      <c r="F754" s="10"/>
+      <c r="G754" s="11"/>
+      <c r="H754" s="12"/>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B755" t="s">
@@ -22537,7 +18547,7 @@
       <c r="F763" t="s">
         <v>2859</v>
       </c>
-      <c r="G763" s="4" t="s">
+      <c r="G763" s="3" t="s">
         <v>2866</v>
       </c>
       <c r="H763" t="s">
@@ -22594,7 +18604,7 @@
       <c r="F769" t="s">
         <v>2854</v>
       </c>
-      <c r="G769" s="4">
+      <c r="G769" s="3">
         <v>300025481</v>
       </c>
       <c r="H769" t="s">
@@ -22611,7 +18621,7 @@
       <c r="F770" t="s">
         <v>2854</v>
       </c>
-      <c r="G770" s="4">
+      <c r="G770" s="3">
         <v>300230874</v>
       </c>
       <c r="H770" t="s">
@@ -22628,7 +18638,7 @@
       <c r="F771" t="s">
         <v>2854</v>
       </c>
-      <c r="G771" s="4">
+      <c r="G771" s="3">
         <v>300025483</v>
       </c>
       <c r="H771" t="s">
@@ -22704,7 +18714,7 @@
       <c r="F779" t="s">
         <v>2854</v>
       </c>
-      <c r="G779" s="4">
+      <c r="G779" s="3">
         <v>300026023</v>
       </c>
       <c r="H779" t="s">
@@ -22730,19 +18740,19 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="782" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A782" s="11" t="s">
+    <row r="782" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A782" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="B782" s="12" t="s">
+      <c r="B782" s="10" t="s">
         <v>2421</v>
       </c>
-      <c r="C782" s="12"/>
-      <c r="D782" s="12"/>
-      <c r="E782" s="12"/>
-      <c r="F782" s="12"/>
-      <c r="G782" s="13"/>
-      <c r="H782" s="14"/>
+      <c r="C782" s="10"/>
+      <c r="D782" s="10"/>
+      <c r="E782" s="10"/>
+      <c r="F782" s="10"/>
+      <c r="G782" s="11"/>
+      <c r="H782" s="12"/>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B783" t="s">
@@ -22865,7 +18875,7 @@
       </c>
     </row>
     <row r="798" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B798" s="18" t="s">
+      <c r="B798" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C798">
@@ -22873,7 +18883,7 @@
       </c>
     </row>
     <row r="799" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B799" s="18" t="s">
+      <c r="B799" s="15" t="s">
         <v>2424</v>
       </c>
       <c r="C799">
@@ -22882,7 +18892,7 @@
       <c r="F799" t="s">
         <v>2854</v>
       </c>
-      <c r="G799" s="4">
+      <c r="G799" s="3">
         <v>300112347</v>
       </c>
       <c r="H799" t="s">
@@ -22899,7 +18909,7 @@
       <c r="F800" t="s">
         <v>2854</v>
       </c>
-      <c r="G800" s="4">
+      <c r="G800" s="3">
         <v>300054777</v>
       </c>
       <c r="H800" t="s">
@@ -22907,7 +18917,7 @@
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B801" s="18" t="s">
+      <c r="B801" s="15" t="s">
         <v>219</v>
       </c>
       <c r="C801">
@@ -22915,7 +18925,7 @@
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B802" s="18" t="s">
+      <c r="B802" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C802">
@@ -23010,19 +19020,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A814" s="11" t="s">
+    <row r="814" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A814" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="B814" s="12" t="s">
+      <c r="B814" s="10" t="s">
         <v>2434</v>
       </c>
-      <c r="C814" s="12"/>
-      <c r="D814" s="12"/>
-      <c r="E814" s="12"/>
-      <c r="F814" s="12"/>
-      <c r="G814" s="13"/>
-      <c r="H814" s="14"/>
+      <c r="C814" s="10"/>
+      <c r="D814" s="10"/>
+      <c r="E814" s="10"/>
+      <c r="F814" s="10"/>
+      <c r="G814" s="11"/>
+      <c r="H814" s="12"/>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B815" t="s">
@@ -23066,7 +19076,7 @@
       <c r="F819" t="s">
         <v>2854</v>
       </c>
-      <c r="G819" s="4">
+      <c r="G819" s="3">
         <v>300054731</v>
       </c>
       <c r="H819" t="s">
@@ -23144,7 +19154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9215C874-121B-4894-B643-42FAF4459923}">
   <dimension ref="A1:D1919"/>
   <sheetViews>
@@ -50030,7 +46040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E00646E-70BD-4AAE-8A3C-9E09B7550464}">
   <dimension ref="A1:A972"/>
   <sheetViews>
@@ -54914,15 +50924,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008196D9B1364DBA4485155381F3681F85" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="76069d34dd27958f7a8e233eaf8feee5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bf9f7725-d561-4566-ae3e-6648ef850641" xmlns:ns4="f6a7d2fc-9b76-409a-81c7-ca20d12906c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4542fd3efc6fbe98b02a37d1c5a7e141" ns3:_="" ns4:_="">
     <xsd:import namespace="bf9f7725-d561-4566-ae3e-6648ef850641"/>
@@ -55151,6 +51152,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0B9FB4D-E67A-4406-8041-EA9016E541F4}">
   <ds:schemaRefs>
@@ -55169,14 +51179,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656E617A-7D76-4F94-A35E-477F3CF6AEA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C198C5EF-14DF-417B-AF14-AFE666BC5FA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55193,4 +51195,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656E617A-7D76-4F94-A35E-477F3CF6AEA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataportalapp/static/data/hva/overzichtassociaties.xlsx
+++ b/dataportalapp/static/data/hva/overzichtassociaties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gentplus-my.sharepoint.com/personal/flore_verkest_stad_gent/Documents/Bureaublad/hva-im-dataportal/dataportalapp/static/data/hva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{094C56C7-14C1-4F3D-AEE5-D7D34E774C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DBA521-03D0-4AC1-90CD-0F6177E31318}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{094C56C7-14C1-4F3D-AEE5-D7D34E774C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACF0F20-4508-40F9-8929-5B22DA2AA609}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'alle associaties'!$A$1:$D$1919</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'overzicht associaties (alle)'!$A$1:$H$836</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'overzicht associaties (alle)'!$A$1:$H$837</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="3106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="3106">
   <si>
     <t>Associatie</t>
   </si>
@@ -9364,7 +9364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9509,6 +9509,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -9918,7 +9925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9956,6 +9963,7 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10299,10 +10307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE3D2D2-64DD-4A61-BCCA-B27BF8E11166}">
-  <dimension ref="A1:H838"/>
+  <dimension ref="A1:H839"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
-      <selection activeCell="B801" sqref="B801"/>
+      <selection activeCell="C791" sqref="C791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18824,25 +18832,31 @@
       <c r="G789" s="11"/>
       <c r="H789" s="12"/>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B790" t="s">
-        <v>217</v>
-      </c>
-      <c r="C790">
-        <v>621</v>
-      </c>
+    <row r="790" spans="1:8" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A790" s="17"/>
+      <c r="B790" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C790" s="17">
+        <v>1</v>
+      </c>
+      <c r="D790" s="17"/>
+      <c r="E790" s="17"/>
+      <c r="F790" s="17"/>
+      <c r="G790" s="18"/>
+      <c r="H790" s="17"/>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B791" t="s">
-        <v>427</v>
+        <v>217</v>
       </c>
       <c r="C791">
-        <v>6</v>
+        <v>621</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B792" t="s">
-        <v>1097</v>
+        <v>427</v>
       </c>
       <c r="C792">
         <v>6</v>
@@ -18850,15 +18864,15 @@
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B793" t="s">
-        <v>1042</v>
+        <v>1097</v>
       </c>
       <c r="C793">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B794" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C794">
         <v>5</v>
@@ -18866,15 +18880,15 @@
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B795" t="s">
-        <v>819</v>
+        <v>1046</v>
       </c>
       <c r="C795">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B796" t="s">
-        <v>1092</v>
+        <v>819</v>
       </c>
       <c r="C796">
         <v>4</v>
@@ -18882,41 +18896,41 @@
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B797" t="s">
-        <v>653</v>
+        <v>1092</v>
       </c>
       <c r="C797">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B798" t="s">
-        <v>3104</v>
+        <v>653</v>
+      </c>
+      <c r="C798">
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B799" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C799">
-        <v>2</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B800" t="s">
-        <v>3105</v>
+        <v>1043</v>
+      </c>
+      <c r="C800">
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B801" t="s">
-        <v>182</v>
-      </c>
-      <c r="C801">
-        <v>1</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="802" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B802" t="s">
-        <v>1052</v>
+        <v>182</v>
       </c>
       <c r="C802">
         <v>1</v>
@@ -18924,7 +18938,7 @@
     </row>
     <row r="803" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B803" t="s">
-        <v>1151</v>
+        <v>1052</v>
       </c>
       <c r="C803">
         <v>1</v>
@@ -18932,113 +18946,113 @@
     </row>
     <row r="804" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B804" t="s">
-        <v>332</v>
+        <v>1151</v>
       </c>
       <c r="C804">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B805" t="s">
-        <v>1435</v>
+        <v>332</v>
       </c>
       <c r="C805">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="806" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B806" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C806">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="807" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B807" t="s">
         <v>2423</v>
       </c>
-      <c r="C806">
+      <c r="C807">
         <v>45</v>
-      </c>
-    </row>
-    <row r="807" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B807" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C807">
-        <v>371</v>
       </c>
     </row>
     <row r="808" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B808" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C808">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="809" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B809" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C808">
+      <c r="C809">
         <v>80</v>
-      </c>
-      <c r="F808" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G808" s="3">
-        <v>300112347</v>
-      </c>
-      <c r="H808" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="809" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B809" t="s">
-        <v>226</v>
-      </c>
-      <c r="C809">
-        <v>11</v>
       </c>
       <c r="F809" t="s">
         <v>2854</v>
       </c>
       <c r="G809" s="3">
+        <v>300112347</v>
+      </c>
+      <c r="H809" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="810" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B810" t="s">
+        <v>226</v>
+      </c>
+      <c r="C810">
+        <v>11</v>
+      </c>
+      <c r="F810" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G810" s="3">
         <v>300054777</v>
       </c>
-      <c r="H809" t="s">
+      <c r="H810" t="s">
         <v>3060</v>
-      </c>
-    </row>
-    <row r="810" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B810" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C810">
-        <v>408</v>
       </c>
     </row>
     <row r="811" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B811" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C811">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="812" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B812" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C811">
+      <c r="C812">
         <v>177</v>
-      </c>
-    </row>
-    <row r="812" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B812" t="s">
-        <v>829</v>
-      </c>
-      <c r="C812">
-        <v>5</v>
       </c>
     </row>
     <row r="813" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B813" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C813">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="814" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B814" t="s">
-        <v>496</v>
+        <v>812</v>
       </c>
       <c r="C814">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="815" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B815" t="s">
-        <v>809</v>
+        <v>496</v>
       </c>
       <c r="C815">
         <v>6</v>
@@ -19046,23 +19060,23 @@
     </row>
     <row r="816" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B816" t="s">
-        <v>414</v>
+        <v>809</v>
       </c>
       <c r="C816">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B817" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="C817">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B818" t="s">
-        <v>844</v>
+        <v>457</v>
       </c>
       <c r="C818">
         <v>3</v>
@@ -19070,110 +19084,110 @@
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B819" t="s">
-        <v>887</v>
+        <v>844</v>
       </c>
       <c r="C819">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B820" t="s">
-        <v>924</v>
+        <v>887</v>
       </c>
       <c r="C820">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B821" t="s">
+        <v>924</v>
+      </c>
+      <c r="C821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B822" t="s">
         <v>1321</v>
       </c>
-      <c r="C821">
+      <c r="C822">
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B822" t="s">
+    <row r="823" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B823" t="s">
         <v>1782</v>
       </c>
-      <c r="C822">
+      <c r="C823">
         <v>4</v>
       </c>
     </row>
-    <row r="823" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A823" s="9" t="s">
+    <row r="824" spans="1:8" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A824" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="B823" s="10" t="s">
+      <c r="B824" s="10" t="s">
         <v>2434</v>
       </c>
-      <c r="C823" s="10"/>
-      <c r="D823" s="10"/>
-      <c r="E823" s="10"/>
-      <c r="F823" s="10"/>
-      <c r="G823" s="11"/>
-      <c r="H823" s="12"/>
-    </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B824" t="s">
-        <v>358</v>
-      </c>
-      <c r="C824">
-        <v>15</v>
-      </c>
+      <c r="C824" s="10"/>
+      <c r="D824" s="10"/>
+      <c r="E824" s="10"/>
+      <c r="F824" s="10"/>
+      <c r="G824" s="11"/>
+      <c r="H824" s="12"/>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B825" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="C825">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B826" t="s">
-        <v>824</v>
+        <v>481</v>
       </c>
       <c r="C826">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B827" t="s">
-        <v>1600</v>
+        <v>824</v>
       </c>
       <c r="C827">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B828" t="s">
-        <v>1438</v>
+        <v>1600</v>
       </c>
       <c r="C828">
-        <v>2</v>
-      </c>
-      <c r="F828" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G828" s="3">
-        <v>300054731</v>
-      </c>
-      <c r="H828" t="s">
-        <v>2994</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B829" t="s">
-        <v>922</v>
+        <v>1438</v>
       </c>
       <c r="C829">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F829" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G829" s="3">
+        <v>300054731</v>
+      </c>
+      <c r="H829" t="s">
+        <v>2994</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B830" t="s">
-        <v>1373</v>
+        <v>922</v>
       </c>
       <c r="C830">
         <v>1</v>
@@ -19181,7 +19195,7 @@
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B831" t="s">
-        <v>1724</v>
+        <v>1373</v>
       </c>
       <c r="C831">
         <v>1</v>
@@ -19189,7 +19203,7 @@
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B832" t="s">
-        <v>1892</v>
+        <v>1724</v>
       </c>
       <c r="C832">
         <v>1</v>
@@ -19197,48 +19211,56 @@
     </row>
     <row r="833" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B833" t="s">
-        <v>435</v>
+        <v>1892</v>
       </c>
       <c r="C833">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B834" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
       <c r="C834">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="835" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B835" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C835">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="836" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B836" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C836">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="837" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B837" t="s">
-        <v>3102</v>
+        <v>317</v>
+      </c>
+      <c r="C837">
+        <v>30</v>
       </c>
     </row>
     <row r="838" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B838" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="839" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B839" t="s">
         <v>1563</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H836" xr:uid="{12343350-2FBC-49CE-858B-453976007FD4}"/>
+  <autoFilter ref="A1:H837" xr:uid="{12343350-2FBC-49CE-858B-453976007FD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -51006,11 +51028,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f6a7d2fc-9b76-409a-81c7-ca20d12906c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51243,27 +51266,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f6a7d2fc-9b76-409a-81c7-ca20d12906c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0B9FB4D-E67A-4406-8041-EA9016E541F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656E617A-7D76-4F94-A35E-477F3CF6AEA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bf9f7725-d561-4566-ae3e-6648ef850641"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6a7d2fc-9b76-409a-81c7-ca20d12906c2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51288,9 +51301,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{656E617A-7D76-4F94-A35E-477F3CF6AEA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0B9FB4D-E67A-4406-8041-EA9016E541F4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bf9f7725-d561-4566-ae3e-6648ef850641"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6a7d2fc-9b76-409a-81c7-ca20d12906c2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>